--- a/Inventario/Inventario PujVex.xlsx
+++ b/Inventario/Inventario PujVex.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\OneDrive\Documentos\GitHub\Qr-and-BarCode-creator\Inventario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CE6D86-F422-4A5B-8512-1D629671AD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95907B70-9F2D-41B2-BE8A-B3F2347F8897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6750" windowWidth="19440" windowHeight="14880" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uso" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="610">
   <si>
     <t>Inventario PUJVEX</t>
   </si>
@@ -1470,6 +1470,408 @@
   </si>
   <si>
     <t>20T Sprockets</t>
+  </si>
+  <si>
+    <t>A125.pdf</t>
+  </si>
+  <si>
+    <t>A135.pdf</t>
+  </si>
+  <si>
+    <t>A24.pdf</t>
+  </si>
+  <si>
+    <t>A215.pdf</t>
+  </si>
+  <si>
+    <t>A220.pdf</t>
+  </si>
+  <si>
+    <t>A225.pdf</t>
+  </si>
+  <si>
+    <t>A235.pdf</t>
+  </si>
+  <si>
+    <t>RGB.pdf</t>
+  </si>
+  <si>
+    <t>A216.pdf</t>
+  </si>
+  <si>
+    <t>AE235.pdf</t>
+  </si>
+  <si>
+    <t>PL13.pdf</t>
+  </si>
+  <si>
+    <t>PL14.pdf</t>
+  </si>
+  <si>
+    <t>PL15.pdf</t>
+  </si>
+  <si>
+    <t>PL16.pdf</t>
+  </si>
+  <si>
+    <t>PL17.pdf</t>
+  </si>
+  <si>
+    <t>PL18.pdf</t>
+  </si>
+  <si>
+    <t>PL19.pdf</t>
+  </si>
+  <si>
+    <t>PL120.pdf</t>
+  </si>
+  <si>
+    <t>PL123.pdf</t>
+  </si>
+  <si>
+    <t>PL125.pdf</t>
+  </si>
+  <si>
+    <t>PL55.pdf</t>
+  </si>
+  <si>
+    <t>PL513.pdf</t>
+  </si>
+  <si>
+    <t>PL515.pdf</t>
+  </si>
+  <si>
+    <t>PL525.pdf</t>
+  </si>
+  <si>
+    <t>CU14.pdf</t>
+  </si>
+  <si>
+    <t>CU25.pdf</t>
+  </si>
+  <si>
+    <t>CU210.pdf</t>
+  </si>
+  <si>
+    <t>CU215.pdf</t>
+  </si>
+  <si>
+    <t>CU220.pdf</t>
+  </si>
+  <si>
+    <t>CU225.pdf</t>
+  </si>
+  <si>
+    <t>CU230.pdf</t>
+  </si>
+  <si>
+    <t>CU235.pdf</t>
+  </si>
+  <si>
+    <t>CU35.pdf</t>
+  </si>
+  <si>
+    <t>CU315.pdf</t>
+  </si>
+  <si>
+    <t>CU318.pdf</t>
+  </si>
+  <si>
+    <t>CU329.pdf</t>
+  </si>
+  <si>
+    <t>CU330.pdf</t>
+  </si>
+  <si>
+    <t>CU335.pdf</t>
+  </si>
+  <si>
+    <t>CU55.pdf</t>
+  </si>
+  <si>
+    <t>CU510.pdf</t>
+  </si>
+  <si>
+    <t>CU514.pdf</t>
+  </si>
+  <si>
+    <t>CU515.pdf</t>
+  </si>
+  <si>
+    <t>CU520.pdf</t>
+  </si>
+  <si>
+    <t>CU525.pdf</t>
+  </si>
+  <si>
+    <t>CU535.pdf</t>
+  </si>
+  <si>
+    <t>LST124.pdf</t>
+  </si>
+  <si>
+    <t>LST135.pdf</t>
+  </si>
+  <si>
+    <t>R2225.pdf</t>
+  </si>
+  <si>
+    <t>R1235.pdf</t>
+  </si>
+  <si>
+    <t>BS5.pdf</t>
+  </si>
+  <si>
+    <t>EP11.pdf</t>
+  </si>
+  <si>
+    <t>AV90.pdf</t>
+  </si>
+  <si>
+    <t>GP45.pdf</t>
+  </si>
+  <si>
+    <t>GP90.pdf</t>
+  </si>
+  <si>
+    <t>GD90.pdf</t>
+  </si>
+  <si>
+    <t>RC1.pdf</t>
+  </si>
+  <si>
+    <t>RV1.pdf</t>
+  </si>
+  <si>
+    <t>RA1.pdf</t>
+  </si>
+  <si>
+    <t>ECRC.pdf</t>
+  </si>
+  <si>
+    <t>RBC.pdf</t>
+  </si>
+  <si>
+    <t>RB.pdf</t>
+  </si>
+  <si>
+    <t>C.pdf</t>
+  </si>
+  <si>
+    <t>RBB.pdf</t>
+  </si>
+  <si>
+    <t>SMCR.pdf</t>
+  </si>
+  <si>
+    <t>SM36.pdf</t>
+  </si>
+  <si>
+    <t>SM18.pdf</t>
+  </si>
+  <si>
+    <t>SM6.pdf</t>
+  </si>
+  <si>
+    <t>BS.pdf</t>
+  </si>
+  <si>
+    <t>LTS.pdf</t>
+  </si>
+  <si>
+    <t>LS.pdf</t>
+  </si>
+  <si>
+    <t>ODW4.pdf</t>
+  </si>
+  <si>
+    <t>ODW325.pdf</t>
+  </si>
+  <si>
+    <t>ODW275.pdf</t>
+  </si>
+  <si>
+    <t>TW325.pdf</t>
+  </si>
+  <si>
+    <t>TW275.pdf</t>
+  </si>
+  <si>
+    <t>MW4.pdf</t>
+  </si>
+  <si>
+    <t>RW4.pdf</t>
+  </si>
+  <si>
+    <t>RWW5.pdf</t>
+  </si>
+  <si>
+    <t>ODWD275.pdf</t>
+  </si>
+  <si>
+    <t>SFW30A.pdf</t>
+  </si>
+  <si>
+    <t>SFW45A.pdf</t>
+  </si>
+  <si>
+    <t>36THSG.pdf</t>
+  </si>
+  <si>
+    <t>60THSG.pdf</t>
+  </si>
+  <si>
+    <t>84THSG.pdf</t>
+  </si>
+  <si>
+    <t>RG2.pdf</t>
+  </si>
+  <si>
+    <t>IST.pdf</t>
+  </si>
+  <si>
+    <t>OST.pdf</t>
+  </si>
+  <si>
+    <t>DOC.pdf</t>
+  </si>
+  <si>
+    <t>CF.pdf</t>
+  </si>
+  <si>
+    <t>12TG.pdf</t>
+  </si>
+  <si>
+    <t>84SG.pdf</t>
+  </si>
+  <si>
+    <t>60SG.pdf</t>
+  </si>
+  <si>
+    <t>36SG.pdf</t>
+  </si>
+  <si>
+    <t>12TMG.pdf</t>
+  </si>
+  <si>
+    <t>DF.pdf</t>
+  </si>
+  <si>
+    <t>WG.pdf</t>
+  </si>
+  <si>
+    <t>WW.pdf</t>
+  </si>
+  <si>
+    <t>24TBG.pdf</t>
+  </si>
+  <si>
+    <t>10TS.pdf</t>
+  </si>
+  <si>
+    <t>15TS.pdf</t>
+  </si>
+  <si>
+    <t>24TS.pdf</t>
+  </si>
+  <si>
+    <t>40TS.pdf</t>
+  </si>
+  <si>
+    <t>48TS.pdf</t>
+  </si>
+  <si>
+    <t>6THSS.pdf</t>
+  </si>
+  <si>
+    <t>12THSS.pdf</t>
+  </si>
+  <si>
+    <t>18THSS.pdf</t>
+  </si>
+  <si>
+    <t>24THSS.pdf</t>
+  </si>
+  <si>
+    <t>30THSS.pdf</t>
+  </si>
+  <si>
+    <t>TTDIW.pdf</t>
+  </si>
+  <si>
+    <t>IR.pdf</t>
+  </si>
+  <si>
+    <t>CKV1.pdf</t>
+  </si>
+  <si>
+    <t>BHSSCK.pdf</t>
+  </si>
+  <si>
+    <t>BTTUK.pdf</t>
+  </si>
+  <si>
+    <t>LC4S6.pdf</t>
+  </si>
+  <si>
+    <t>BHSGK.pdf</t>
+  </si>
+  <si>
+    <t>BAHSC.pdf</t>
+  </si>
+  <si>
+    <t>BRG.pdf</t>
+  </si>
+  <si>
+    <t>AT200.pdf</t>
+  </si>
+  <si>
+    <t>25SPC.pdf</t>
+  </si>
+  <si>
+    <t>SOVF.pdf</t>
+  </si>
+  <si>
+    <t>PF.pdf</t>
+  </si>
+  <si>
+    <t>PSF.pdf</t>
+  </si>
+  <si>
+    <t>APRA.pdf</t>
+  </si>
+  <si>
+    <t>DCFASS.pdf</t>
+  </si>
+  <si>
+    <t>ASS.pdf</t>
+  </si>
+  <si>
+    <t>PR.pdf</t>
+  </si>
+  <si>
+    <t>SC.pdf</t>
+  </si>
+  <si>
+    <t>SDCSC.pdf</t>
+  </si>
+  <si>
+    <t>FLFEK.pdf</t>
+  </si>
+  <si>
+    <t>VNCS.pdf</t>
+  </si>
+  <si>
+    <t>TCI.pdf</t>
+  </si>
+  <si>
+    <t>MCI.pdf</t>
+  </si>
+  <si>
+    <t>SCI.pdf</t>
+  </si>
+  <si>
+    <t>Links</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1883,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1657,6 +2059,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="18">
@@ -2465,10 +2874,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2872,54 +3282,56 @@
     <xf numFmtId="49" fontId="31" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
@@ -3395,7 +3807,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4210050" y="1162050"/>
+          <a:off x="4384675" y="1146175"/>
           <a:ext cx="333375" cy="295275"/>
           <a:chOff x="152400" y="152400"/>
           <a:chExt cx="1280575" cy="1280575"/>
@@ -3469,9 +3881,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="InventarioVexV5" displayName="InventarioVexV5" ref="A1:N149">
-  <autoFilter ref="A1:N149" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="InventarioVexV5" displayName="InventarioVexV5" ref="A1:O149">
+  <autoFilter ref="A1:O149" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ID Pieza (SKU)"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Codigo Pieza"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Individual (I) - Pack (P)"/>
@@ -3490,6 +3902,7 @@
     <tableColumn id="14" xr3:uid="{D80CAF80-648B-435C-BCCD-F76F07E8902E}" name="Codigo QR" dataDxfId="0">
       <calculatedColumnFormula>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="15" xr3:uid="{F9BDD512-3F7C-4BF3-B8FE-1C6D813BFDFB}" name="Links"/>
   </tableColumns>
   <tableStyleInfo name="Inventario-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3721,129 +4134,129 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75">
+    <row r="1" spans="1:13" ht="12.5">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="12.75">
-      <c r="B2" s="157" t="s">
+    <row r="2" spans="1:13" ht="12.5">
+      <c r="B2" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="159"/>
-    </row>
-    <row r="3" spans="1:13" ht="12.75">
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="162"/>
-    </row>
-    <row r="4" spans="1:13" ht="12.75">
-      <c r="B4" s="163"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164"/>
-      <c r="J4" s="165"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="178"/>
+    </row>
+    <row r="3" spans="1:13" ht="12.5">
+      <c r="B3" s="179"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="180"/>
+    </row>
+    <row r="4" spans="1:13" ht="12.5">
+      <c r="B4" s="181"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="182"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="182"/>
+      <c r="I4" s="182"/>
+      <c r="J4" s="183"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B7" s="166" t="s">
+      <c r="B7" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="168"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="164"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="12.75">
-      <c r="B8" s="169" t="s">
+    <row r="8" spans="1:13" ht="13">
+      <c r="B8" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="170"/>
-    </row>
-    <row r="9" spans="1:13" ht="12.75">
-      <c r="B9" s="169" t="s">
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="172"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="173"/>
+    </row>
+    <row r="9" spans="1:13" ht="13">
+      <c r="B9" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="170"/>
-    </row>
-    <row r="10" spans="1:13" ht="12.75">
-      <c r="B10" s="169" t="s">
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="173"/>
+    </row>
+    <row r="10" spans="1:13" ht="13">
+      <c r="B10" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="170"/>
-    </row>
-    <row r="11" spans="1:13" ht="12.75">
-      <c r="B11" s="169" t="s">
+      <c r="C10" s="172"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="173"/>
+    </row>
+    <row r="11" spans="1:13" ht="13">
+      <c r="B11" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="161"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="170"/>
-    </row>
-    <row r="12" spans="1:13" ht="12.75">
-      <c r="B12" s="171" t="s">
+      <c r="C11" s="172"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="173"/>
+    </row>
+    <row r="12" spans="1:13" ht="13">
+      <c r="B12" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="172"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="172"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="173"/>
-    </row>
-    <row r="13" spans="1:13" ht="12.75">
+      <c r="C12" s="168"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="168"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="168"/>
+      <c r="H12" s="168"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="166"/>
+    </row>
+    <row r="13" spans="1:13" ht="12.5">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -3854,7 +4267,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:13" ht="12.75">
+    <row r="14" spans="1:13" ht="12.5">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3866,138 +4279,138 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B15" s="166" t="s">
+      <c r="B15" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="167"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="168"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="164"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="174" t="s">
+      <c r="C16" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="174" t="s">
+      <c r="D16" s="168"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="172"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="173"/>
-    </row>
-    <row r="17" spans="2:10" ht="14.25">
+      <c r="H16" s="168"/>
+      <c r="I16" s="168"/>
+      <c r="J16" s="166"/>
+    </row>
+    <row r="17" spans="2:10" ht="14">
       <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="175" t="s">
+      <c r="C17" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="176"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="175" t="s">
+      <c r="D17" s="161"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="176"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="177"/>
-    </row>
-    <row r="18" spans="2:10" ht="14.25">
+      <c r="H17" s="161"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="159"/>
+    </row>
+    <row r="18" spans="2:10" ht="14">
       <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="175" t="s">
+      <c r="C18" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="176"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="175" t="s">
+      <c r="D18" s="161"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="176"/>
-      <c r="I18" s="176"/>
-      <c r="J18" s="177"/>
-    </row>
-    <row r="19" spans="2:10" ht="14.25">
+      <c r="H18" s="161"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="159"/>
+    </row>
+    <row r="19" spans="2:10" ht="14">
       <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="175" t="s">
+      <c r="C19" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="176"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="175" t="s">
+      <c r="D19" s="161"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="176"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="177"/>
-    </row>
-    <row r="20" spans="2:10" ht="14.25">
+      <c r="H19" s="161"/>
+      <c r="I19" s="161"/>
+      <c r="J19" s="159"/>
+    </row>
+    <row r="20" spans="2:10" ht="14">
       <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="175" t="s">
+      <c r="C20" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="176"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="177"/>
-      <c r="G20" s="175" t="s">
+      <c r="D20" s="161"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="176"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="177"/>
-    </row>
-    <row r="21" spans="2:10" ht="14.25">
+      <c r="H20" s="161"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="159"/>
+    </row>
+    <row r="21" spans="2:10" ht="14">
       <c r="B21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="175" t="s">
+      <c r="C21" s="160" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="176"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="175" t="s">
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="176"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="177"/>
-    </row>
-    <row r="22" spans="2:10" ht="14.25">
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="159"/>
+    </row>
+    <row r="22" spans="2:10" ht="14">
       <c r="B22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="175" t="s">
+      <c r="C22" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="176"/>
-      <c r="E22" s="176"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="175" t="s">
+      <c r="D22" s="161"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="176"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="177"/>
-    </row>
-    <row r="23" spans="2:10" ht="12.75">
+      <c r="H22" s="161"/>
+      <c r="I22" s="161"/>
+      <c r="J22" s="159"/>
+    </row>
+    <row r="23" spans="2:10" ht="12.5">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4008,7 +4421,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10" ht="12.75">
+    <row r="24" spans="2:10" ht="12.5">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4020,80 +4433,101 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B25" s="166" t="s">
+      <c r="B25" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="167"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="167"/>
-      <c r="I25" s="167"/>
-      <c r="J25" s="168"/>
-    </row>
-    <row r="26" spans="2:10" ht="14.25">
-      <c r="B26" s="179" t="s">
+      <c r="C25" s="163"/>
+      <c r="D25" s="163"/>
+      <c r="E25" s="163"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="164"/>
+    </row>
+    <row r="26" spans="2:10" ht="14">
+      <c r="B26" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="173"/>
-      <c r="D26" s="180" t="s">
+      <c r="C26" s="166"/>
+      <c r="D26" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="173"/>
-    </row>
-    <row r="27" spans="2:10" ht="14.25">
-      <c r="B27" s="178" t="s">
+      <c r="E26" s="168"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="168"/>
+      <c r="I26" s="168"/>
+      <c r="J26" s="166"/>
+    </row>
+    <row r="27" spans="2:10" ht="14">
+      <c r="B27" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="177"/>
-      <c r="D27" s="181" t="s">
+      <c r="C27" s="159"/>
+      <c r="D27" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="176"/>
-      <c r="F27" s="176"/>
-      <c r="G27" s="176"/>
-      <c r="H27" s="176"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="177"/>
-    </row>
-    <row r="28" spans="2:10" ht="14.25">
-      <c r="B28" s="178" t="s">
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="159"/>
+    </row>
+    <row r="28" spans="2:10" ht="14">
+      <c r="B28" s="158" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="177"/>
-      <c r="D28" s="182" t="s">
+      <c r="C28" s="159"/>
+      <c r="D28" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="176"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="176"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="177"/>
-    </row>
-    <row r="29" spans="2:10" ht="14.25">
-      <c r="B29" s="178" t="s">
+      <c r="E28" s="161"/>
+      <c r="F28" s="161"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="161"/>
+      <c r="J28" s="159"/>
+    </row>
+    <row r="29" spans="2:10" ht="14">
+      <c r="B29" s="158" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="177"/>
-      <c r="D29" s="182" t="s">
+      <c r="C29" s="159"/>
+      <c r="D29" s="170" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="176"/>
-      <c r="F29" s="176"/>
-      <c r="G29" s="176"/>
-      <c r="H29" s="176"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="177"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B2:J4"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="G22:J22"/>
@@ -4104,27 +4538,6 @@
     <mergeCell ref="D27:J27"/>
     <mergeCell ref="D28:J28"/>
     <mergeCell ref="D29:J29"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="B2:J4"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="B10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4141,9 +4554,9 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:5" ht="15.75" customHeight="1">
@@ -4164,7 +4577,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="2:5" ht="12.75">
+    <row r="7" spans="2:5" ht="13">
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
@@ -4179,15 +4592,15 @@
       <c r="D8" s="5"/>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="2:5" ht="12.75">
+    <row r="9" spans="2:5" ht="13">
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="183" t="e">
+      <c r="C9" s="184" t="e">
         <f t="array" aca="1" ref="C9" ca="1">_xludf.XLOOKUP(C7,Inventario!B:B,Inventario!D:D,)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D9" s="184"/>
+      <c r="D9" s="185"/>
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" customHeight="1">
@@ -4198,10 +4611,10 @@
       <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="185" t="s">
+      <c r="C11" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="161"/>
+      <c r="D11" s="172"/>
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" customHeight="1">
@@ -4257,17 +4670,17 @@
       <c r="B19" s="18"/>
       <c r="E19" s="17"/>
     </row>
-    <row r="20" spans="2:5" ht="12.75">
+    <row r="20" spans="2:5" ht="12.5">
       <c r="B20" s="18"/>
       <c r="E20" s="17"/>
     </row>
-    <row r="21" spans="2:5" ht="12.75">
+    <row r="21" spans="2:5" ht="12.5">
       <c r="B21" s="19"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="21"/>
     </row>
-    <row r="43" spans="10:10" ht="12.75">
+    <row r="43" spans="10:10" ht="12.5">
       <c r="J43" s="22" t="s">
         <v>40</v>
       </c>
@@ -4312,9 +4725,9 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:5" ht="15.75" customHeight="1">
@@ -4335,7 +4748,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="2:5" ht="12.75">
+    <row r="7" spans="2:5" ht="13">
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
@@ -4352,11 +4765,11 @@
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="186" t="e">
+      <c r="C9" s="187" t="e">
         <f t="array" aca="1" ref="C9" ca="1">_xludf.XLOOKUP(C7,Inventario!B:B,Inventario!D:D,)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D9" s="161"/>
+      <c r="D9" s="172"/>
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" customHeight="1">
@@ -4367,8 +4780,8 @@
       <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="185"/>
-      <c r="D11" s="161"/>
+      <c r="C11" s="186"/>
+      <c r="D11" s="172"/>
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" customHeight="1">
@@ -4420,11 +4833,11 @@
       <c r="B19" s="18"/>
       <c r="E19" s="17"/>
     </row>
-    <row r="20" spans="2:5" ht="12.75">
+    <row r="20" spans="2:5" ht="12.5">
       <c r="B20" s="18"/>
       <c r="E20" s="17"/>
     </row>
-    <row r="21" spans="2:5" ht="12.75">
+    <row r="21" spans="2:5" ht="12.5">
       <c r="B21" s="19"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -4473,11 +4886,11 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
+    <col min="6" max="6" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
@@ -4894,7 +5307,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="12.75">
+    <row r="22" spans="1:6" ht="12.5">
       <c r="A22" s="27" t="s">
         <v>84</v>
       </c>
@@ -4914,7 +5327,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="12.75">
+    <row r="23" spans="1:6" ht="12.5">
       <c r="A23" s="32" t="s">
         <v>38</v>
       </c>
@@ -4932,7 +5345,7 @@
       </c>
       <c r="F23" s="36"/>
     </row>
-    <row r="24" spans="1:6" ht="12.75">
+    <row r="24" spans="1:6" ht="12.5">
       <c r="A24" s="27" t="s">
         <v>87</v>
       </c>
@@ -4950,7 +5363,7 @@
       </c>
       <c r="F24" s="31"/>
     </row>
-    <row r="25" spans="1:6" ht="12.75">
+    <row r="25" spans="1:6" ht="12.5">
       <c r="A25" s="32" t="s">
         <v>38</v>
       </c>
@@ -4970,7 +5383,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="12.75">
+    <row r="26" spans="1:6" ht="12.5">
       <c r="A26" s="27" t="s">
         <v>90</v>
       </c>
@@ -4988,7 +5401,7 @@
       </c>
       <c r="F26" s="31"/>
     </row>
-    <row r="27" spans="1:6" ht="12.75">
+    <row r="27" spans="1:6" ht="12.5">
       <c r="A27" s="32" t="s">
         <v>92</v>
       </c>
@@ -5008,7 +5421,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="12.75">
+    <row r="28" spans="1:6" ht="12.5">
       <c r="A28" s="27" t="s">
         <v>92</v>
       </c>
@@ -5026,7 +5439,7 @@
       </c>
       <c r="F28" s="31"/>
     </row>
-    <row r="29" spans="1:6" ht="12.75">
+    <row r="29" spans="1:6" ht="12.5">
       <c r="A29" s="32" t="s">
         <v>92</v>
       </c>
@@ -5044,7 +5457,7 @@
       </c>
       <c r="F29" s="36"/>
     </row>
-    <row r="30" spans="1:6" ht="12.75">
+    <row r="30" spans="1:6" ht="12.5">
       <c r="A30" s="27" t="s">
         <v>95</v>
       </c>
@@ -5062,7 +5475,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="12.75">
+    <row r="31" spans="1:6" ht="12.5">
       <c r="A31" s="32" t="s">
         <v>97</v>
       </c>
@@ -5082,7 +5495,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12.75">
+    <row r="32" spans="1:6" ht="12.5">
       <c r="A32" s="27" t="s">
         <v>100</v>
       </c>
@@ -5100,7 +5513,7 @@
       </c>
       <c r="F32" s="31"/>
     </row>
-    <row r="33" spans="1:6" ht="12.75">
+    <row r="33" spans="1:6" ht="12.5">
       <c r="A33" s="32" t="s">
         <v>97</v>
       </c>
@@ -5118,7 +5531,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12.75">
+    <row r="34" spans="1:6" ht="12.5">
       <c r="A34" s="27" t="s">
         <v>60</v>
       </c>
@@ -5136,7 +5549,7 @@
       </c>
       <c r="F34" s="31"/>
     </row>
-    <row r="35" spans="1:6" ht="12.75">
+    <row r="35" spans="1:6" ht="12.5">
       <c r="A35" s="32" t="s">
         <v>60</v>
       </c>
@@ -5156,7 +5569,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="12.75">
+    <row r="36" spans="1:6" ht="12.5">
       <c r="A36" s="27" t="s">
         <v>49</v>
       </c>
@@ -5176,7 +5589,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="12.75">
+    <row r="37" spans="1:6" ht="12.5">
       <c r="A37" s="32" t="s">
         <v>57</v>
       </c>
@@ -5194,7 +5607,7 @@
       </c>
       <c r="F37" s="36"/>
     </row>
-    <row r="38" spans="1:6" ht="12.75">
+    <row r="38" spans="1:6" ht="12.5">
       <c r="A38" s="27" t="s">
         <v>57</v>
       </c>
@@ -5212,7 +5625,7 @@
       </c>
       <c r="F38" s="31"/>
     </row>
-    <row r="39" spans="1:6" ht="12.75">
+    <row r="39" spans="1:6" ht="12.5">
       <c r="A39" s="32" t="s">
         <v>38</v>
       </c>
@@ -5232,7 +5645,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="12.75">
+    <row r="40" spans="1:6" ht="12.5">
       <c r="A40" s="27" t="s">
         <v>97</v>
       </c>
@@ -5252,7 +5665,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="12.75">
+    <row r="41" spans="1:6" ht="12.5">
       <c r="A41" s="32" t="s">
         <v>106</v>
       </c>
@@ -5272,7 +5685,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="12.75">
+    <row r="42" spans="1:6" ht="12.5">
       <c r="A42" s="27" t="s">
         <v>49</v>
       </c>
@@ -5292,7 +5705,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="12.75">
+    <row r="43" spans="1:6" ht="12.5">
       <c r="A43" s="32" t="s">
         <v>67</v>
       </c>
@@ -5312,7 +5725,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12.75">
+    <row r="44" spans="1:6" ht="12.5">
       <c r="A44" s="27" t="s">
         <v>71</v>
       </c>
@@ -5332,7 +5745,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="12.75">
+    <row r="45" spans="1:6" ht="12.5">
       <c r="A45" s="32" t="s">
         <v>65</v>
       </c>
@@ -5352,7 +5765,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12.75">
+    <row r="46" spans="1:6" ht="12.5">
       <c r="A46" s="27" t="s">
         <v>67</v>
       </c>
@@ -5372,7 +5785,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="12.75">
+    <row r="47" spans="1:6" ht="12.5">
       <c r="A47" s="32" t="s">
         <v>74</v>
       </c>
@@ -5392,7 +5805,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="12.75">
+    <row r="48" spans="1:6" ht="12.5">
       <c r="A48" s="27" t="s">
         <v>110</v>
       </c>
@@ -5412,7 +5825,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="12.75">
+    <row r="49" spans="1:6" ht="12.5">
       <c r="A49" s="32" t="s">
         <v>67</v>
       </c>
@@ -5432,7 +5845,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="12.75">
+    <row r="50" spans="1:6" ht="12.5">
       <c r="A50" s="27" t="s">
         <v>53</v>
       </c>
@@ -5452,7 +5865,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="12.75">
+    <row r="51" spans="1:6" ht="12.5">
       <c r="A51" s="32" t="s">
         <v>53</v>
       </c>
@@ -5472,7 +5885,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="12.75">
+    <row r="52" spans="1:6" ht="12.5">
       <c r="A52" s="27" t="s">
         <v>113</v>
       </c>
@@ -5492,7 +5905,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="12.75">
+    <row r="53" spans="1:6" ht="12.5">
       <c r="A53" s="32" t="s">
         <v>113</v>
       </c>
@@ -5512,7 +5925,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="12.75">
+    <row r="54" spans="1:6" ht="12.5">
       <c r="A54" s="27" t="s">
         <v>113</v>
       </c>
@@ -5532,7 +5945,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="12.75">
+    <row r="55" spans="1:6" ht="12.5">
       <c r="A55" s="32" t="s">
         <v>41</v>
       </c>
@@ -5552,7 +5965,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="12.75">
+    <row r="56" spans="1:6" ht="12.5">
       <c r="A56" s="27" t="s">
         <v>120</v>
       </c>
@@ -5572,7 +5985,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="12.75">
+    <row r="57" spans="1:6" ht="12.5">
       <c r="A57" s="32" t="s">
         <v>53</v>
       </c>
@@ -5592,7 +6005,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="12.75">
+    <row r="58" spans="1:6" ht="12.5">
       <c r="A58" s="37" t="s">
         <v>110</v>
       </c>
@@ -5612,82 +6025,82 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="12.75">
+    <row r="59" spans="1:6" ht="12.5">
       <c r="D59" s="5"/>
       <c r="E59" s="42"/>
     </row>
-    <row r="60" spans="1:6" ht="12.75">
+    <row r="60" spans="1:6" ht="12.5">
       <c r="D60" s="5"/>
       <c r="E60" s="42"/>
     </row>
-    <row r="61" spans="1:6" ht="12.75">
+    <row r="61" spans="1:6" ht="12.5">
       <c r="D61" s="5"/>
       <c r="E61" s="42"/>
     </row>
-    <row r="62" spans="1:6" ht="12.75">
+    <row r="62" spans="1:6" ht="12.5">
       <c r="D62" s="5"/>
       <c r="E62" s="42"/>
     </row>
-    <row r="63" spans="1:6" ht="12.75">
+    <row r="63" spans="1:6" ht="12.5">
       <c r="D63" s="5"/>
       <c r="E63" s="42"/>
     </row>
-    <row r="64" spans="1:6" ht="12.75">
+    <row r="64" spans="1:6" ht="12.5">
       <c r="D64" s="5"/>
       <c r="E64" s="42"/>
     </row>
-    <row r="65" spans="1:5" ht="12.75">
+    <row r="65" spans="1:5" ht="12.5">
       <c r="D65" s="5"/>
       <c r="E65" s="42"/>
     </row>
-    <row r="66" spans="1:5" ht="12.75">
+    <row r="66" spans="1:5" ht="12.5">
       <c r="D66" s="5"/>
       <c r="E66" s="42"/>
     </row>
-    <row r="67" spans="1:5" ht="12.75">
+    <row r="67" spans="1:5" ht="12.5">
       <c r="D67" s="5"/>
       <c r="E67" s="42"/>
     </row>
-    <row r="68" spans="1:5" ht="12.75">
+    <row r="68" spans="1:5" ht="12.5">
       <c r="B68" s="43"/>
       <c r="D68" s="5"/>
       <c r="E68" s="42"/>
     </row>
-    <row r="69" spans="1:5" ht="12.75">
+    <row r="69" spans="1:5" ht="12.5">
       <c r="B69" s="43"/>
       <c r="D69" s="5"/>
       <c r="E69" s="42"/>
     </row>
-    <row r="70" spans="1:5" ht="12.75">
+    <row r="70" spans="1:5" ht="12.5">
       <c r="D70" s="5"/>
       <c r="E70" s="42"/>
     </row>
-    <row r="71" spans="1:5" ht="12.75">
+    <row r="71" spans="1:5" ht="12.5">
       <c r="E71" s="42"/>
     </row>
-    <row r="72" spans="1:5" ht="12.75">
+    <row r="72" spans="1:5" ht="12.5">
       <c r="E72" s="42"/>
     </row>
-    <row r="73" spans="1:5" ht="12.75">
+    <row r="73" spans="1:5" ht="12.5">
       <c r="E73" s="42"/>
     </row>
-    <row r="74" spans="1:5" ht="12.75">
+    <row r="74" spans="1:5" ht="12.5">
       <c r="E74" s="42"/>
     </row>
-    <row r="75" spans="1:5" ht="12.75">
+    <row r="75" spans="1:5" ht="12.5">
       <c r="E75" s="42"/>
     </row>
-    <row r="76" spans="1:5" ht="12.75">
+    <row r="76" spans="1:5" ht="12.5">
       <c r="A76" s="22"/>
       <c r="D76" s="42"/>
     </row>
-    <row r="78" spans="1:5" ht="12.75">
+    <row r="78" spans="1:5" ht="12.5">
       <c r="A78" s="22"/>
     </row>
-    <row r="79" spans="1:5" ht="12.75">
+    <row r="79" spans="1:5" ht="12.5">
       <c r="A79" s="22"/>
     </row>
-    <row r="80" spans="1:5" ht="12.75">
+    <row r="80" spans="1:5" ht="12.5">
       <c r="A80" s="22"/>
     </row>
   </sheetData>
@@ -5720,10 +6133,10 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
@@ -6134,7 +6547,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="12.75">
+    <row r="22" spans="1:6" ht="12.5">
       <c r="A22" s="47" t="s">
         <v>67</v>
       </c>
@@ -6154,7 +6567,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="12.75">
+    <row r="23" spans="1:6" ht="12.5">
       <c r="A23" s="50" t="s">
         <v>67</v>
       </c>
@@ -6174,7 +6587,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.75">
+    <row r="24" spans="1:6" ht="12.5">
       <c r="A24" s="47" t="s">
         <v>113</v>
       </c>
@@ -6194,7 +6607,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="12.75">
+    <row r="25" spans="1:6" ht="12.5">
       <c r="A25" s="50" t="s">
         <v>113</v>
       </c>
@@ -6214,7 +6627,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="12.75">
+    <row r="26" spans="1:6" ht="12.5">
       <c r="A26" s="47" t="s">
         <v>113</v>
       </c>
@@ -6234,7 +6647,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="12.75">
+    <row r="27" spans="1:6" ht="12.5">
       <c r="A27" s="50" t="s">
         <v>120</v>
       </c>
@@ -6252,7 +6665,7 @@
       </c>
       <c r="F27" s="52"/>
     </row>
-    <row r="28" spans="1:6" ht="12.75">
+    <row r="28" spans="1:6" ht="12.5">
       <c r="A28" s="47" t="s">
         <v>41</v>
       </c>
@@ -6270,7 +6683,7 @@
       </c>
       <c r="F28" s="49"/>
     </row>
-    <row r="29" spans="1:6" ht="12.75">
+    <row r="29" spans="1:6" ht="12.5">
       <c r="A29" s="50" t="s">
         <v>53</v>
       </c>
@@ -6290,7 +6703,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="12.75">
+    <row r="30" spans="1:6" ht="12.5">
       <c r="A30" s="53" t="s">
         <v>110</v>
       </c>
@@ -6310,14 +6723,14 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="12.75">
+    <row r="31" spans="1:6" ht="12.5">
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="12.75">
+    <row r="32" spans="1:6" ht="12.5">
       <c r="B32" s="43"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="2:5" ht="12.75">
+    <row r="33" spans="2:5" ht="12.5">
       <c r="B33" s="43"/>
       <c r="E33" s="1"/>
     </row>
@@ -6339,12 +6752,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="15.75" customHeight="1">
@@ -6361,7 +6774,7 @@
         <v>En uso</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="12.75">
+    <row r="3" spans="2:4" ht="12.5">
       <c r="B3" s="22" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A125")</f>
         <v>A125</v>
@@ -6375,7 +6788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="12.75">
+    <row r="4" spans="2:4" ht="12.5">
       <c r="B4" s="22" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A135")</f>
         <v>A135</v>
@@ -6389,7 +6802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="12.75">
+    <row r="5" spans="2:4" ht="12.5">
       <c r="B5" s="22" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A235")</f>
         <v>A235</v>
@@ -6403,7 +6816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="12.75">
+    <row r="6" spans="2:4" ht="12.5">
       <c r="B6" s="22" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"PL515")</f>
         <v>PL515</v>
@@ -6417,7 +6830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="12.75">
+    <row r="7" spans="2:4" ht="12.5">
       <c r="B7" s="22" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CU210")</f>
         <v>CU210</v>
@@ -6431,7 +6844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="12.75">
+    <row r="8" spans="2:4" ht="12.5">
       <c r="B8" s="22" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CU225")</f>
         <v>CU225</v>
@@ -6445,7 +6858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="12.75">
+    <row r="9" spans="2:4" ht="12.5">
       <c r="B9" s="22" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CU230")</f>
         <v>CU230</v>
@@ -6459,7 +6872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="12.75">
+    <row r="10" spans="2:4" ht="12.5">
       <c r="B10" s="22" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CU235")</f>
         <v>CU235</v>
@@ -6473,7 +6886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="12.75">
+    <row r="11" spans="2:4" ht="12.5">
       <c r="B11" s="22" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CU330")</f>
         <v>CU330</v>
@@ -6487,7 +6900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="12.75">
+    <row r="12" spans="2:4" ht="12.5">
       <c r="B12" s="22" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CU510")</f>
         <v>CU510</v>
@@ -6501,7 +6914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="12.75">
+    <row r="13" spans="2:4" ht="12.5">
       <c r="B13" s="22" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SMCR")</f>
         <v>SMCR</v>
@@ -6515,7 +6928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="12.75">
+    <row r="14" spans="2:4" ht="12.5">
       <c r="B14" s="22" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SM18")</f>
         <v>SM18</v>
@@ -6529,7 +6942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="12.75">
+    <row r="15" spans="2:4" ht="12.5">
       <c r="B15" s="22" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SM6")</f>
         <v>SM6</v>
@@ -6543,7 +6956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="12.75">
+    <row r="16" spans="2:4" ht="12.5">
       <c r="B16" s="22" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ODW4")</f>
         <v>ODW4</v>
@@ -6557,7 +6970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="12.75">
+    <row r="17" spans="2:4" ht="12.5">
       <c r="B17" s="22" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ODW325")</f>
         <v>ODW325</v>
@@ -6571,7 +6984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="12.75">
+    <row r="18" spans="2:4" ht="12.5">
       <c r="B18" s="22" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SFW45A")</f>
         <v>SFW45A</v>
@@ -6585,7 +6998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="12.75">
+    <row r="19" spans="2:4" ht="12.5">
       <c r="B19" s="22" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"60THSG")</f>
         <v>60THSG</v>
@@ -6599,7 +7012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="12.75">
+    <row r="20" spans="2:4" ht="12.5">
       <c r="B20" s="22" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"12THSS")</f>
         <v>12THSS</v>
@@ -6624,29 +7037,30 @@
     <tabColor rgb="FF6D9EEB"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N149"/>
+  <dimension ref="A1:O149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B136" sqref="B136"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="49.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="49.26953125" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" customWidth="1"/>
+    <col min="9" max="9" width="20.1796875" customWidth="1"/>
     <col min="10" max="10" width="45" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" customWidth="1"/>
+    <col min="13" max="13" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5">
+    <row r="1" spans="1:15" ht="26">
       <c r="A1" s="58" t="s">
         <v>134</v>
       </c>
@@ -6689,8 +7103,11 @@
       <c r="N1" s="152" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="23.25">
+      <c r="O1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="20.5">
       <c r="A2" s="64" t="s">
         <v>145</v>
       </c>
@@ -6730,8 +7147,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*A125*</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="22.5">
+      <c r="O2" s="157" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="22">
       <c r="A3" s="64" t="s">
         <v>151</v>
       </c>
@@ -6773,8 +7193,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*A135*</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="22.5">
+      <c r="O3" s="157" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="22">
       <c r="A4" s="64" t="s">
         <v>145</v>
       </c>
@@ -6812,8 +7235,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*A24*</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="22.5">
+      <c r="O4" s="157" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="22">
       <c r="A5" s="64" t="s">
         <v>145</v>
       </c>
@@ -6853,8 +7279,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*A215*</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="22.5">
+      <c r="O5" s="157" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="22">
       <c r="A6" s="64" t="s">
         <v>145</v>
       </c>
@@ -6894,8 +7323,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*A220*</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="22.5">
+      <c r="O6" s="157" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="22">
       <c r="A7" s="64" t="s">
         <v>159</v>
       </c>
@@ -6937,8 +7369,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*A225*</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="22.5">
+      <c r="O7" s="157" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="22">
       <c r="A8" s="64" t="s">
         <v>162</v>
       </c>
@@ -6980,8 +7415,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*A235*</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="22.5">
+      <c r="O8" s="157" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="22">
       <c r="A9" s="64" t="s">
         <v>165</v>
       </c>
@@ -7023,8 +7461,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*RGB*</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="22.5">
+      <c r="O9" s="157" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="22">
       <c r="A10" s="75"/>
       <c r="B10" s="65" t="s">
         <v>169</v>
@@ -7060,8 +7501,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*A216*</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="22.5">
+      <c r="O10" s="157" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="22">
       <c r="A11" s="75"/>
       <c r="B11" s="65" t="s">
         <v>171</v>
@@ -7097,8 +7541,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*AE235*</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="22.5">
+      <c r="O11" s="157" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="22">
       <c r="A12" s="64" t="s">
         <v>145</v>
       </c>
@@ -7138,8 +7585,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*PL13*</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="22.5">
+      <c r="O12" s="157" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="22">
       <c r="A13" s="64" t="s">
         <v>145</v>
       </c>
@@ -7179,8 +7629,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*PL14*</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="22.5">
+      <c r="O13" s="157" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="22">
       <c r="A14" s="64" t="s">
         <v>145</v>
       </c>
@@ -7220,8 +7673,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*PL15*</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="22.5">
+      <c r="O14" s="157" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="22">
       <c r="A15" s="64" t="s">
         <v>145</v>
       </c>
@@ -7261,8 +7717,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*PL16*</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="22.5">
+      <c r="O15" s="157" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="22">
       <c r="A16" s="64" t="s">
         <v>145</v>
       </c>
@@ -7302,8 +7761,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*PL17*</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="22.5">
+      <c r="O16" s="157" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="22">
       <c r="A17" s="64" t="s">
         <v>145</v>
       </c>
@@ -7343,8 +7805,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*PL18*</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="22.5">
+      <c r="O17" s="157" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="22">
       <c r="A18" s="64" t="s">
         <v>145</v>
       </c>
@@ -7384,8 +7849,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*PL19*</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="22.5">
+      <c r="O18" s="157" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="22">
       <c r="A19" s="64" t="s">
         <v>145</v>
       </c>
@@ -7425,8 +7893,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*PL120*</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="22.5">
+      <c r="O19" s="157" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="22">
       <c r="A20" s="64" t="s">
         <v>145</v>
       </c>
@@ -7465,8 +7936,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*PL123*</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="22.5">
+      <c r="O20" s="157" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="22">
       <c r="A21" s="64" t="s">
         <v>191</v>
       </c>
@@ -7508,8 +7982,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*PL125*</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="22.5">
+      <c r="O21" s="157" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="22">
       <c r="A22" s="64" t="s">
         <v>145</v>
       </c>
@@ -7549,8 +8026,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*PL55*</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="22.5">
+      <c r="O22" s="157" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="22">
       <c r="A23" s="64" t="s">
         <v>145</v>
       </c>
@@ -7590,8 +8070,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*PL513*</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="22.5">
+      <c r="O23" s="157" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="22">
       <c r="A24" s="64" t="s">
         <v>198</v>
       </c>
@@ -7633,8 +8116,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*PL515*</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="22.5">
+      <c r="O24" s="157" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="22">
       <c r="A25" s="64" t="s">
         <v>199</v>
       </c>
@@ -7676,8 +8162,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*PL525*</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="22.5">
+      <c r="O25" s="157" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="22">
       <c r="A26" s="64" t="s">
         <v>145</v>
       </c>
@@ -7717,8 +8206,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*CU14*</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="22.5">
+      <c r="O26" s="157" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="22">
       <c r="A27" s="64" t="s">
         <v>145</v>
       </c>
@@ -7758,8 +8250,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*CU25*</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="22.5">
+      <c r="O27" s="157" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="22">
       <c r="A28" s="64" t="s">
         <v>145</v>
       </c>
@@ -7799,8 +8294,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*CU210*</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="22.5">
+      <c r="O28" s="157" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="22">
       <c r="A29" s="64" t="s">
         <v>145</v>
       </c>
@@ -7840,8 +8338,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*CU215*</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="22.5">
+      <c r="O29" s="157" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="22">
       <c r="A30" s="64" t="s">
         <v>208</v>
       </c>
@@ -7883,8 +8384,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*CU220*</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="22.5">
+      <c r="O30" s="157" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="22">
       <c r="A31" s="64" t="s">
         <v>209</v>
       </c>
@@ -7926,8 +8430,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*CU225*</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="22.5">
+      <c r="O31" s="157" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="22">
       <c r="A32" s="64" t="s">
         <v>145</v>
       </c>
@@ -7967,8 +8474,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*CU230*</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="22.5">
+      <c r="O32" s="157" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="22">
       <c r="A33" s="64" t="s">
         <v>210</v>
       </c>
@@ -8010,8 +8520,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*CU235*</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="22.5">
+      <c r="O33" s="157" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="22">
       <c r="A34" s="64" t="s">
         <v>145</v>
       </c>
@@ -8051,8 +8564,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*CU35*</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="22.5">
+      <c r="O34" s="157" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="22">
       <c r="A35" s="64" t="s">
         <v>145</v>
       </c>
@@ -8092,8 +8608,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*CU315*</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="22.5">
+      <c r="O35" s="157" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="22">
       <c r="A36" s="64" t="s">
         <v>145</v>
       </c>
@@ -8133,8 +8652,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*CU318*</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="22.5">
+      <c r="O36" s="157" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="22">
       <c r="A37" s="64" t="s">
         <v>145</v>
       </c>
@@ -8174,8 +8696,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*CU329*</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="22.5">
+      <c r="O37" s="157" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="22">
       <c r="A38" s="64" t="s">
         <v>145</v>
       </c>
@@ -8215,8 +8740,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*CU330*</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="22.5">
+      <c r="O38" s="157" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="22">
       <c r="A39" s="64" t="s">
         <v>219</v>
       </c>
@@ -8258,8 +8786,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*CU335*</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="22.5">
+      <c r="O39" s="157" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="22">
       <c r="A40" s="64" t="s">
         <v>145</v>
       </c>
@@ -8299,8 +8830,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*CU55*</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="22.5">
+      <c r="O40" s="157" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="22">
       <c r="A41" s="64" t="s">
         <v>145</v>
       </c>
@@ -8340,8 +8874,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*CU510*</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="22.5">
+      <c r="O41" s="157" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="22">
       <c r="A42" s="64" t="s">
         <v>145</v>
       </c>
@@ -8381,8 +8918,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*CU514*</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="22.5">
+      <c r="O42" s="157" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="22">
       <c r="A43" s="64" t="s">
         <v>145</v>
       </c>
@@ -8422,8 +8962,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*CU515*</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="22.5">
+      <c r="O43" s="157" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="22">
       <c r="A44" s="64" t="s">
         <v>145</v>
       </c>
@@ -8463,8 +9006,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*CU520*</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="22.5">
+      <c r="O44" s="157" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="22">
       <c r="A45" s="64" t="s">
         <v>226</v>
       </c>
@@ -8506,8 +9052,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*CU525*</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="22.5">
+      <c r="O45" s="157" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="22">
       <c r="A46" s="64" t="s">
         <v>229</v>
       </c>
@@ -8549,8 +9098,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*CU535*</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="22.5">
+      <c r="O46" s="157" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="22">
       <c r="A47" s="79" t="s">
         <v>232</v>
       </c>
@@ -8592,8 +9144,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*LST124*</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="22.5">
+      <c r="O47" s="157" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="22">
       <c r="A48" s="79" t="s">
         <v>232</v>
       </c>
@@ -8633,8 +9188,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*LST135*</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" ht="22.5">
+      <c r="O48" s="157" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="22">
       <c r="A49" s="64" t="s">
         <v>238</v>
       </c>
@@ -8676,8 +9234,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*R2225*</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" ht="22.5">
+      <c r="O49" s="157" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="22">
       <c r="A50" s="64" t="s">
         <v>241</v>
       </c>
@@ -8721,8 +9282,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*R1235*</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" ht="22.5">
+      <c r="O50" s="157" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="22">
       <c r="A51" s="64" t="s">
         <v>244</v>
       </c>
@@ -8764,8 +9328,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*BS5*</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" ht="22.5">
+      <c r="O51" s="157" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="22">
       <c r="A52" s="156" t="s">
         <v>145</v>
       </c>
@@ -8803,8 +9370,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*EP11*</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" ht="22.5">
+      <c r="O52" s="157" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="22">
       <c r="A53" s="64" t="s">
         <v>249</v>
       </c>
@@ -8846,8 +9416,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*AV90*</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" ht="22.5">
+      <c r="O53" s="157" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="22">
       <c r="A54" s="64" t="s">
         <v>252</v>
       </c>
@@ -8889,8 +9462,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*GP45*</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" ht="22.5">
+      <c r="O54" s="157" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="22">
       <c r="A55" s="64" t="s">
         <v>255</v>
       </c>
@@ -8932,8 +9508,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*GP90*</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" ht="22.5">
+      <c r="O55" s="157" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="22">
       <c r="A56" s="64" t="s">
         <v>255</v>
       </c>
@@ -8975,8 +9554,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*GD90*</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" ht="22.5">
+      <c r="O56" s="157" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="22">
       <c r="A57" s="85" t="s">
         <v>261</v>
       </c>
@@ -9018,8 +9600,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*RC1*</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" ht="22.5">
+      <c r="O57" s="157" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="22">
       <c r="A58" s="85" t="s">
         <v>261</v>
       </c>
@@ -9061,8 +9646,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*RV1*</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" ht="22.5">
+      <c r="O58" s="157" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="22">
       <c r="A59" s="85" t="s">
         <v>261</v>
       </c>
@@ -9104,8 +9692,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*RA1*</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" ht="22.5">
+      <c r="O59" s="157" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="22">
       <c r="A60" s="85" t="s">
         <v>268</v>
       </c>
@@ -9147,8 +9738,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*ECRC*</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" ht="22.5">
+      <c r="O60" s="157" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="22">
       <c r="A61" s="89" t="s">
         <v>271</v>
       </c>
@@ -9190,8 +9784,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*RBC*</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" ht="22.5">
+      <c r="O61" s="157" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="22">
       <c r="A62" s="89" t="s">
         <v>275</v>
       </c>
@@ -9233,8 +9830,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*RB*</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" ht="22.5">
+      <c r="O62" s="157" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="22">
       <c r="A63" s="89" t="s">
         <v>278</v>
       </c>
@@ -9276,8 +9876,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*C*</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" ht="22.5">
+      <c r="O63" s="157" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="22">
       <c r="A64" s="89" t="s">
         <v>281</v>
       </c>
@@ -9321,8 +9924,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*RBB*</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" ht="22.5">
+      <c r="O64" s="157" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="22">
       <c r="A65" s="89" t="s">
         <v>285</v>
       </c>
@@ -9364,8 +9970,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*SMCR*</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" ht="22.5">
+      <c r="O65" s="157" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="22">
       <c r="A66" s="89" t="s">
         <v>288</v>
       </c>
@@ -9409,8 +10018,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*SM36*</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" ht="22.5">
+      <c r="O66" s="157" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="22">
       <c r="A67" s="89" t="s">
         <v>292</v>
       </c>
@@ -9454,8 +10066,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*SM18*</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" ht="22.5">
+      <c r="O67" s="157" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="22">
       <c r="A68" s="89" t="s">
         <v>294</v>
       </c>
@@ -9499,8 +10114,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*SM6*</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" ht="22.5">
+      <c r="O68" s="157" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="22">
       <c r="A69" s="89" t="s">
         <v>296</v>
       </c>
@@ -9542,8 +10160,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*BS*</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" ht="22.5">
+      <c r="O69" s="157" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="22">
       <c r="A70" s="89" t="s">
         <v>271</v>
       </c>
@@ -9581,8 +10202,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*RBC*</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" ht="22.5">
+      <c r="O70" s="157" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="22">
       <c r="A71" s="89" t="s">
         <v>299</v>
       </c>
@@ -9622,8 +10246,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*LTS*</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" ht="22.5">
+      <c r="O71" s="157" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="22">
       <c r="A72" s="89" t="s">
         <v>301</v>
       </c>
@@ -9665,8 +10292,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*LS*</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" ht="22.5">
+      <c r="O72" s="157" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="22">
       <c r="A73" s="98" t="s">
         <v>304</v>
       </c>
@@ -9708,8 +10338,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*ODW4*</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" ht="22.5">
+      <c r="O73" s="157" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="22">
       <c r="A74" s="98" t="s">
         <v>306</v>
       </c>
@@ -9751,8 +10384,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*ODW325*</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" ht="22.5">
+      <c r="O74" s="157" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="22">
       <c r="A75" s="98" t="s">
         <v>307</v>
       </c>
@@ -9794,8 +10430,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*ODW275*</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" ht="22.5">
+      <c r="O75" s="157" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="22">
       <c r="A76" s="98" t="s">
         <v>310</v>
       </c>
@@ -9837,8 +10476,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*TW325*</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" ht="22.5">
+      <c r="O76" s="157" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="22">
       <c r="A77" s="98" t="s">
         <v>313</v>
       </c>
@@ -9880,8 +10522,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*TW275*</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" ht="22.5">
+      <c r="O77" s="157" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="22">
       <c r="A78" s="98" t="s">
         <v>316</v>
       </c>
@@ -9921,8 +10566,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*MW4*</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" ht="22.5">
+      <c r="O78" s="157" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="22">
       <c r="A79" s="98" t="s">
         <v>319</v>
       </c>
@@ -9962,8 +10610,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*RW4*</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" ht="22.5">
+      <c r="O79" s="157" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="22">
       <c r="A80" s="98" t="s">
         <v>320</v>
       </c>
@@ -10003,8 +10654,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*RWW5*</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" ht="22.5">
+      <c r="O80" s="157" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="22">
       <c r="A81" s="98" t="s">
         <v>323</v>
       </c>
@@ -10044,8 +10698,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*ODWD275*</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" ht="22.5">
+      <c r="O81" s="157" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="22">
       <c r="A82" s="98" t="s">
         <v>326</v>
       </c>
@@ -10087,8 +10744,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*SFW30A*</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" ht="22.5">
+      <c r="O82" s="157" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="22">
       <c r="A83" s="98" t="s">
         <v>327</v>
       </c>
@@ -10130,8 +10790,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*SFW45A*</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" ht="22.5">
+      <c r="O83" s="157" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="22">
       <c r="A84" s="106" t="s">
         <v>328</v>
       </c>
@@ -10173,8 +10836,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*36THSG*</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" ht="22.5">
+      <c r="O84" s="157" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="22">
       <c r="A85" s="106" t="s">
         <v>331</v>
       </c>
@@ -10216,8 +10882,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*60THSG*</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" ht="22.5">
+      <c r="O85" s="157" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="22">
       <c r="A86" s="106" t="s">
         <v>332</v>
       </c>
@@ -10259,8 +10928,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*84THSG*</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" ht="22.5">
+      <c r="O86" s="157" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="22">
       <c r="A87" s="106" t="s">
         <v>335</v>
       </c>
@@ -10302,8 +10974,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*RG2*</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" ht="22.5">
+      <c r="O87" s="157" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="22">
       <c r="A88" s="106" t="s">
         <v>338</v>
       </c>
@@ -10345,8 +11020,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*IST*</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" ht="22.5">
+      <c r="O88" s="157" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="22">
       <c r="A89" s="106" t="s">
         <v>338</v>
       </c>
@@ -10388,8 +11066,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*OST*</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" ht="22.5">
+      <c r="O89" s="157" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="22">
       <c r="A90" s="106" t="s">
         <v>343</v>
       </c>
@@ -10429,8 +11110,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*DOC*</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" ht="22.5">
+      <c r="O90" s="157" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="22">
       <c r="A91" s="106" t="s">
         <v>346</v>
       </c>
@@ -10470,8 +11154,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*CF*</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" ht="22.5">
+      <c r="O91" s="157" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="22">
       <c r="A92" s="106" t="s">
         <v>349</v>
       </c>
@@ -10513,8 +11200,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*12TG*</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" ht="22.5">
+      <c r="O92" s="157" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="22">
       <c r="A93" s="106" t="s">
         <v>474</v>
       </c>
@@ -10554,8 +11244,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*84SG*</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" ht="22.5">
+      <c r="O93" s="157" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="22">
       <c r="A94" s="106" t="s">
         <v>474</v>
       </c>
@@ -10595,8 +11288,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*60SG*</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" ht="22.5">
+      <c r="O94" s="157" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="22">
       <c r="A95" s="106" t="s">
         <v>474</v>
       </c>
@@ -10636,8 +11332,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*36SG*</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" ht="22.5">
+      <c r="O95" s="157" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="22">
       <c r="A96" s="106" t="s">
         <v>356</v>
       </c>
@@ -10679,8 +11378,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*12TMG*</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" ht="22.5">
+      <c r="O96" s="157" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="22">
       <c r="A97" s="106" t="s">
         <v>349</v>
       </c>
@@ -10722,8 +11424,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*DF*</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" ht="22.5">
+      <c r="O97" s="157" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="22">
       <c r="A98" s="106" t="s">
         <v>349</v>
       </c>
@@ -10765,8 +11470,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*WG*</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" ht="22.5">
+      <c r="O98" s="157" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="22">
       <c r="A99" s="106" t="s">
         <v>349</v>
       </c>
@@ -10808,8 +11516,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*WW*</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" ht="22.5">
+      <c r="O99" s="157" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="22">
       <c r="A100" s="106" t="s">
         <v>349</v>
       </c>
@@ -10851,8 +11562,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*24TBG*</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" ht="22.5">
+      <c r="O100" s="157" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="22">
       <c r="A101" s="106" t="s">
         <v>367</v>
       </c>
@@ -10894,8 +11608,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*10TS*</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" ht="22.5">
+      <c r="O101" s="157" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="22">
       <c r="A102" s="106" t="s">
         <v>367</v>
       </c>
@@ -10937,8 +11654,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*15TS*</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" ht="22.5">
+      <c r="O102" s="157" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="22">
       <c r="A103" s="106" t="s">
         <v>367</v>
       </c>
@@ -10980,8 +11700,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*24TS*</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" ht="22.5">
+      <c r="O103" s="157" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="22">
       <c r="A104" s="106" t="s">
         <v>367</v>
       </c>
@@ -11023,8 +11746,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*40TS*</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" ht="22.5">
+      <c r="O104" s="157" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="22">
       <c r="A105" s="106" t="s">
         <v>367</v>
       </c>
@@ -11066,8 +11792,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*48TS*</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" ht="22.5">
+      <c r="O105" s="157" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="22">
       <c r="A106" s="106" t="s">
         <v>377</v>
       </c>
@@ -11109,8 +11838,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*6THSS*</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" ht="22.5">
+      <c r="O106" s="157" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="22">
       <c r="A107" s="106" t="s">
         <v>380</v>
       </c>
@@ -11152,8 +11884,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*12THSS*</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" ht="22.5">
+      <c r="O107" s="157" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="22">
       <c r="A108" s="106" t="s">
         <v>381</v>
       </c>
@@ -11195,8 +11930,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*18THSS*</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" ht="22.5">
+      <c r="O108" s="157" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="22">
       <c r="A109" s="106" t="s">
         <v>384</v>
       </c>
@@ -11238,8 +11976,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*24THSS*</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" ht="22.5">
+      <c r="O109" s="157" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="22">
       <c r="A110" s="106" t="s">
         <v>387</v>
       </c>
@@ -11281,8 +12022,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*30THSS*</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" ht="22.5">
+      <c r="O110" s="157" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="22">
       <c r="A111" s="106" t="s">
         <v>390</v>
       </c>
@@ -11324,8 +12068,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*TTDIW*</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" ht="22.5">
+      <c r="O111" s="157" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="22">
       <c r="A112" s="106" t="s">
         <v>393</v>
       </c>
@@ -11367,8 +12114,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*IR*</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" ht="22.5">
+      <c r="O112" s="157" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="22">
       <c r="A113" s="106" t="s">
         <v>396</v>
       </c>
@@ -11410,8 +12160,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*CKV1*</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" ht="22.5">
+      <c r="O113" s="157" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="22">
       <c r="A114" s="106" t="s">
         <v>399</v>
       </c>
@@ -11453,8 +12206,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*BHSSCK*</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" ht="22.5">
+      <c r="O114" s="157" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="22">
       <c r="A115" s="106" t="s">
         <v>402</v>
       </c>
@@ -11496,8 +12252,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*BTTUK*</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" ht="22.5">
+      <c r="O115" s="157" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="22">
       <c r="A116" s="106" t="s">
         <v>405</v>
       </c>
@@ -11537,8 +12296,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*LC4S6*</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" ht="22.5">
+      <c r="O116" s="157" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="22">
       <c r="A117" s="106" t="s">
         <v>408</v>
       </c>
@@ -11578,8 +12340,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*BHSGK*</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" ht="22.5">
+      <c r="O117" s="157" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="22">
       <c r="A118" s="106" t="s">
         <v>399</v>
       </c>
@@ -11621,8 +12386,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*BAHSC*</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" ht="22.5">
+      <c r="O118" s="157" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="22">
       <c r="A119" s="106" t="s">
         <v>335</v>
       </c>
@@ -11664,8 +12432,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*BRG*</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" ht="22.5">
+      <c r="O119" s="157" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="22">
       <c r="A120" s="114" t="s">
         <v>415</v>
       </c>
@@ -11707,8 +12478,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*AT200*</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" ht="22.5">
+      <c r="O120" s="157" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="22">
       <c r="A121" s="114" t="s">
         <v>419</v>
       </c>
@@ -11750,8 +12524,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*25SPC*</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" ht="22.5">
+      <c r="O121" s="157" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" ht="22">
       <c r="A122" s="114" t="s">
         <v>422</v>
       </c>
@@ -11793,8 +12570,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*SOVF*</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" ht="29.25" customHeight="1">
+      <c r="O122" s="157" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="29.25" customHeight="1">
       <c r="A123" s="114" t="s">
         <v>425</v>
       </c>
@@ -11838,8 +12618,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*PF*</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" ht="22.5">
+      <c r="O123" s="157" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="22">
       <c r="A124" s="114" t="s">
         <v>429</v>
       </c>
@@ -11883,8 +12666,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*PSF*</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" ht="22.5">
+      <c r="O124" s="157" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="22">
       <c r="A125" s="114" t="s">
         <v>433</v>
       </c>
@@ -11926,8 +12712,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*APRA*</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" ht="22.5">
+      <c r="O125" s="157" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="22">
       <c r="A126" s="114" t="s">
         <v>436</v>
       </c>
@@ -11969,8 +12758,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*DCFASS*</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" ht="22.5">
+      <c r="O126" s="157" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" ht="22">
       <c r="A127" s="114" t="s">
         <v>439</v>
       </c>
@@ -12014,8 +12806,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*ASS*</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" ht="22.5">
+      <c r="O127" s="157" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="22">
       <c r="A128" s="114" t="s">
         <v>443</v>
       </c>
@@ -12059,8 +12854,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*PR*</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" ht="22.5">
+      <c r="O128" s="157" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" ht="22">
       <c r="A129" s="121" t="s">
         <v>447</v>
       </c>
@@ -12102,8 +12900,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*SC*</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" ht="22.5">
+      <c r="O129" s="157" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" ht="22">
       <c r="A130" s="128" t="s">
         <v>451</v>
       </c>
@@ -12145,8 +12946,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*SDCSC*</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" ht="22.5">
+      <c r="O130" s="157" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" ht="22">
       <c r="A131" s="133" t="s">
         <v>455</v>
       </c>
@@ -12188,8 +12992,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*FLFEK*</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" ht="22.5">
+      <c r="O131" s="157" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" ht="22">
       <c r="A132" s="133" t="s">
         <v>459</v>
       </c>
@@ -12231,8 +13038,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*VNCS*</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" ht="22.5">
+      <c r="O132" s="157" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" ht="22">
       <c r="A133" s="133" t="s">
         <v>402</v>
       </c>
@@ -12267,8 +13077,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*TCI*</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" ht="22.5">
+      <c r="O133" s="157" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" ht="22">
       <c r="A134" s="133" t="s">
         <v>402</v>
       </c>
@@ -12304,8 +13117,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*MCI*</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" ht="22.5">
+      <c r="O134" s="157" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" ht="22">
       <c r="A135" s="133" t="s">
         <v>402</v>
       </c>
@@ -12341,8 +13157,11 @@
         <f>"*"&amp;InventarioVexV5[[#This Row],[Codigo Pieza]]&amp;"*"</f>
         <v>*SCI*</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" ht="20.25">
+      <c r="O135" s="157" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" ht="20">
       <c r="A136" s="150"/>
       <c r="B136" s="148"/>
       <c r="C136" s="146"/>
@@ -12361,7 +13180,7 @@
         <v>**</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="20.25">
+    <row r="137" spans="1:15" ht="20">
       <c r="A137" s="150"/>
       <c r="B137" s="148"/>
       <c r="C137" s="146"/>
@@ -12380,7 +13199,7 @@
         <v>**</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="20.25">
+    <row r="138" spans="1:15" ht="20">
       <c r="A138" s="150"/>
       <c r="B138" s="148"/>
       <c r="C138" s="146"/>
@@ -12399,7 +13218,7 @@
         <v>**</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="20.25">
+    <row r="139" spans="1:15" ht="20">
       <c r="A139" s="150"/>
       <c r="B139" s="148"/>
       <c r="C139" s="146"/>
@@ -12418,7 +13237,7 @@
         <v>**</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="20.25">
+    <row r="140" spans="1:15" ht="20">
       <c r="A140" s="150"/>
       <c r="B140" s="148"/>
       <c r="C140" s="146"/>
@@ -12437,7 +13256,7 @@
         <v>**</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="20.25">
+    <row r="141" spans="1:15" ht="20">
       <c r="A141" s="150"/>
       <c r="B141" s="148"/>
       <c r="C141" s="146"/>
@@ -12456,7 +13275,7 @@
         <v>**</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="20.25">
+    <row r="142" spans="1:15" ht="20">
       <c r="A142" s="150"/>
       <c r="B142" s="148"/>
       <c r="C142" s="146"/>
@@ -12475,7 +13294,7 @@
         <v>**</v>
       </c>
     </row>
-    <row r="143" spans="1:14" ht="20.25">
+    <row r="143" spans="1:15" ht="20">
       <c r="A143" s="150"/>
       <c r="B143" s="148"/>
       <c r="C143" s="146"/>
@@ -12494,7 +13313,7 @@
         <v>**</v>
       </c>
     </row>
-    <row r="144" spans="1:14" ht="20.25">
+    <row r="144" spans="1:15" ht="20">
       <c r="A144" s="150"/>
       <c r="B144" s="148"/>
       <c r="C144" s="146"/>
@@ -12513,7 +13332,7 @@
         <v>**</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="20.25">
+    <row r="145" spans="1:14" ht="20">
       <c r="A145" s="150"/>
       <c r="B145" s="148"/>
       <c r="C145" s="146"/>
@@ -12532,7 +13351,7 @@
         <v>**</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="20.25">
+    <row r="146" spans="1:14" ht="20">
       <c r="A146" s="150"/>
       <c r="B146" s="148"/>
       <c r="C146" s="146"/>
@@ -12551,7 +13370,7 @@
         <v>**</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="20.25">
+    <row r="147" spans="1:14" ht="20">
       <c r="A147" s="150"/>
       <c r="B147" s="148"/>
       <c r="C147" s="146"/>
@@ -12570,7 +13389,7 @@
         <v>**</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="20.25">
+    <row r="148" spans="1:14" ht="20">
       <c r="A148" s="150"/>
       <c r="B148" s="148"/>
       <c r="C148" s="146"/>
@@ -12589,7 +13408,7 @@
         <v>**</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="20.25">
+    <row r="149" spans="1:14" ht="20">
       <c r="A149" s="150"/>
       <c r="B149" s="148"/>
       <c r="C149" s="146"/>
@@ -12621,10 +13440,446 @@
       <formula1>"En stock,En uso"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/Ecvj466rWNRAtJCRC37iBHMBymZCFkhjek5orDEqmnsXOA?e=QhHCWa" xr:uid="{EDA77412-3804-4AF1-8E18-F9AEDE6290E9}"/>
+    <hyperlink ref="O3" r:id="rId2" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EWFHzaCVPjZHtyZQju1HAsMBxZlkWibVPz-liCTHjdfXJA?e=Ceo0lA" xr:uid="{EB40EFBE-F448-4171-8373-67378B021397}"/>
+    <hyperlink ref="O4" r:id="rId3" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EWQvvVNvQ0FIi94n53hV1SwB56m9Drty3QmSrAa1D0UrbQ?e=VKyOHH" xr:uid="{36854EBD-95C7-4053-8EE2-EAFDE350FB95}"/>
+    <hyperlink ref="O5" r:id="rId4" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/ESXMniPAztRKj0V1pg8SVZcBHI8MCvrZOVrQwdG71NnzZw?e=4pLcW3" xr:uid="{C5B60717-FB4E-4EA0-A29A-F33DA944605E}"/>
+    <hyperlink ref="O6" r:id="rId5" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/ETVq9c6KWONPtM_CpNo3dEQBD5ljJKDt3YhV2bZ2LBEx4w?e=YWrt6F" xr:uid="{278E4010-A7B8-48BD-96C6-46D8EE965C23}"/>
+    <hyperlink ref="O7" r:id="rId6" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/ESIV5-w-IJpLnhB_QJH7SuMBOlEK3fGTitTL4AQYaJKghA?e=G2qTwU" xr:uid="{49970EAA-A295-48CC-A2A5-A075B2CAFD26}"/>
+    <hyperlink ref="O8" r:id="rId7" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/ER9bLTp0gqFOp4JX9bAXonsBmFAKEs-CTOqmLjaXyG3DHA?e=OZe66a" xr:uid="{837F2D27-22EE-41E2-96D1-AC73B1F5311C}"/>
+    <hyperlink ref="O9" r:id="rId8" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/ET_x65s029VEoZmkH26JtTIBB_EHFet9IuuWuRHVbCgVvw?e=iCx2m8" xr:uid="{969C3CB0-ADA3-4B4C-B7B6-470439204305}"/>
+    <hyperlink ref="O10" r:id="rId9" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/ERMSchNAwhVMvrtFl1E8PeMBXgbI24iRSekw-j10aqRJ9w?e=YsMvIM" xr:uid="{7E687E7D-9758-41DB-AF7F-2A4D7866A12D}"/>
+    <hyperlink ref="O11" r:id="rId10" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EcYdPh6z5PNPm3EswLKj59YB1K6C10oXAeaYgOkfIfi7Yw?e=EFrhyC" xr:uid="{F8CA3382-92A3-49AB-8162-E8FB7DDB5F19}"/>
+    <hyperlink ref="O12" r:id="rId11" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EanjENTwMMlDhoCRIE4ZfJIBv9-W44tysil6KoK0Z-XYlQ?e=OWgzaW" xr:uid="{E73D2DB9-D9E2-4DD5-B920-024BD050C2FE}"/>
+    <hyperlink ref="O13" r:id="rId12" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/Edy99VXqEStLnLLc-wG27UEB4-9hLOw64493QoQs6__78A?e=LWOFLD" xr:uid="{2954445F-8114-4E1F-B695-65069B288197}"/>
+    <hyperlink ref="O14" r:id="rId13" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/ERLc657mrh9IuQODSo3JlcYBMEA4vDVcmwOkenz96w0qvg?e=SZ4ZIx" xr:uid="{9DE150C3-D96E-4F97-9271-03626E71A00C}"/>
+    <hyperlink ref="O15" r:id="rId14" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EXTLErOMfRBPncgdTGsi4XABWBurfBJMbYuGqst-lXqgpg?e=RAOOmp" xr:uid="{BD51E785-CB3D-4351-89D5-7B3F20A0FCE7}"/>
+    <hyperlink ref="O16" r:id="rId15" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/Ec5Zzb0JpvlCo0deA6KE0z0BolHldepWQp8nMdPGFkjn7Q?e=GXKTyn" xr:uid="{DB9D5467-40C2-4894-9F9C-68528A1AFEE4}"/>
+    <hyperlink ref="O17" r:id="rId16" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/ERym0Orj-yNGhSx3-9rmlAoB9WmXWf9tT5o7xahwEgLNmA?e=NlbF7S" xr:uid="{B5258A96-1625-4294-A25C-FD3296377314}"/>
+    <hyperlink ref="O18" r:id="rId17" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EVvJVBhYlXlAmyh8ezRNK_oBQjiEEYakN7Gpoej0vVoZKg?e=UCPGxl" xr:uid="{263EECF2-9593-4959-9F86-DBEF0B1C5B1B}"/>
+    <hyperlink ref="O19" r:id="rId18" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EcffdMFWxCNAsxZokMjNLXcBiLMGMFKnTSUSmidyDGhGFw?e=jhroff" xr:uid="{EA645AE6-AB49-4992-9FF1-053BE9098479}"/>
+    <hyperlink ref="O20" r:id="rId19" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EYHt12HygtVKmUvyH5lSyVsBDRmnmh-vmoDlqnomBJp86g?e=0vZEy5" xr:uid="{BE1783E0-1B61-4620-A1FC-4AF3369BBF51}"/>
+    <hyperlink ref="O21" r:id="rId20" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EVxLnn4nZutMk9DYHhrHWywB5zJcMaVc3_CBhxxaSPDVlw?e=OaORBU" xr:uid="{B25EAA6E-0541-486C-834F-2FEF80335D1C}"/>
+    <hyperlink ref="O22" r:id="rId21" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/ERhptWynfvVPpkLfvWqhI5oB9ILt-9Ldu1U6YsPcr-EUSA?e=eZffMx" xr:uid="{0E93F6B7-E7C9-4836-B9D5-5F3D3F1634F4}"/>
+    <hyperlink ref="O23" r:id="rId22" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EaW3fSbkYeFHps8x279VabwBqFSI9_6LEWZALvK-WR_75g?e=gySDFI" xr:uid="{92C1B380-087B-49C3-972A-449F089D4D4C}"/>
+    <hyperlink ref="O24" r:id="rId23" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EZseSQAMH3JKqjTWxDJOKwkBYbJwOctPyEab0zqE7JArzw?e=RULQSn" xr:uid="{06C4B09C-E827-46CC-8FDD-5E6DA616FBA2}"/>
+    <hyperlink ref="O25" r:id="rId24" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EZ4o7UMsZQRIsP0gYvQsBrIBDDk25L_4aI3deBmCDdlT9w?e=folFKA" xr:uid="{41FDFB56-5544-4B58-8E50-DAF717F85799}"/>
+    <hyperlink ref="O26" r:id="rId25" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EY3h6kKQ9-JIjqeHLhu4bVMBh_wMAYjyv8PZKF8ffrlpmQ?e=ch0NY5" xr:uid="{3EDC9F03-B797-4229-B325-0211E71EBFEF}"/>
+    <hyperlink ref="O27" r:id="rId26" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/ESvgQfLinklPu9q3vnG_URMBW1sbjSkYkrLzh7UCeYiJMA?e=0PB65Q" xr:uid="{95846DE7-03FC-4F5A-ACE0-C5C24295DA5D}"/>
+    <hyperlink ref="O28" r:id="rId27" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/ETACA9h6e5dFmHqHClwWKwcBKAMmstonOkUQgOfBZp9I2g?e=fidSzx" xr:uid="{C53BC65D-93E4-48AD-8CC1-8A4F78D49532}"/>
+    <hyperlink ref="O29" r:id="rId28" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EdT0vRcplXpMnpyVFuSAqY4BvxR7ZGB-02Cuwsh4OBXAbQ?e=M5KlC5" xr:uid="{EFD19921-37ED-4853-9DA1-E1127AA8ECFB}"/>
+    <hyperlink ref="O30" r:id="rId29" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EYRmOFqPzGhEsLX9g8RN2xoBC-xdkvO5MhEWovGEAuRIOg?e=bvOtSG" xr:uid="{45D31797-DC62-41E2-BFEB-01013173CE29}"/>
+    <hyperlink ref="O31" r:id="rId30" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EQgw8b3qZc5NsQ6Yri3UTrgBIh05QhXzq8yQJugqngRzmw?e=K7NBnf" xr:uid="{A128941E-B3F1-488C-997D-B2EAF3A8E688}"/>
+    <hyperlink ref="O32" r:id="rId31" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EdAk6NdF8PtEmxBUsZY-V6MBIhQJfPL_La-2a6ngTa8Q-Q?e=6cafvP" xr:uid="{4E7DDCC4-E31D-4694-864E-4EE4F2E9DE99}"/>
+    <hyperlink ref="O33" r:id="rId32" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EcV2yDUnWaREnD2DP4ErrMQBIgZIOw55e8bpydFVeJatYw?e=5d1SAx" xr:uid="{86639C10-9049-4354-BED9-A52577E57B2C}"/>
+    <hyperlink ref="O34" r:id="rId33" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EUZjOSuVFGxAuu2iPPbGdrQBJvBWWlUxII3W0K-mLeZ_CA?e=PLVVf3" xr:uid="{32F5A397-8624-49A7-AF6A-2E7AB5407158}"/>
+    <hyperlink ref="O35" r:id="rId34" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EZ5B0kfAaqRGuTjIlfQxnUsB2Cn5kApMrE0igbVnszA6HA?e=DM8Yu6" xr:uid="{AA99D4EE-34C8-4959-8BB0-D6074EF8583B}"/>
+    <hyperlink ref="O36" r:id="rId35" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EXP6mfJRCixApvpMsz_vAtkBrlfAPRT7PI-HANNV_3kDPA?e=5b7Apq" xr:uid="{4FF8A639-57C0-4B7B-BB50-E6D02AED146B}"/>
+    <hyperlink ref="O37" r:id="rId36" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EVhwSLZhBbdEuOmshwXslSsBFWRQhx_Ogsc0uR-7cUuqrw?e=AZf009" xr:uid="{B38E07C1-2F6B-402B-BE6D-465B5934AC1C}"/>
+    <hyperlink ref="O38" r:id="rId37" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EdfUG6rC_6xPstAtGMnDu8ABS7xKgD4UIQcaZFdlbn4zWQ?e=obB5ek" xr:uid="{8C48403A-9AB0-495F-809D-F75A87581838}"/>
+    <hyperlink ref="O39" r:id="rId38" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EUSwCtGkn9FPoJ0afBrkIbgBZBqCxVx-U9hmizuM_1npTQ?e=mX1NLU" xr:uid="{07FE7A6D-C32A-4ABD-91DE-E3A874A082B8}"/>
+    <hyperlink ref="O40" r:id="rId39" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EdAmJLwpKYhLi-7QOVirG1kBdBcas_GKraOZX0lczptegQ?e=7w1lvm" xr:uid="{C7993458-8DB2-4772-9857-1CCDEF798835}"/>
+    <hyperlink ref="O41" r:id="rId40" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EeVgyOw-jmpOmOAbxL2CKqQBxbI-t2_2jA7Ice7S2SBK9Q?e=N7HL3Q" xr:uid="{92ACAA16-51FC-4182-A737-F74538093E70}"/>
+    <hyperlink ref="O42" r:id="rId41" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EWEIdsxDjHlEpuStvGav9q0BBL8OP9zqFMPPoV3yB95ffw?e=PyBLGA" xr:uid="{507B3257-CD64-4C31-AD57-43E372989B24}"/>
+    <hyperlink ref="O43" r:id="rId42" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EdWvareEkTRDsXk3l5BgNz8BrM1vWkuqjIcg0Qxgn9CwjA?e=Hv9J8g" xr:uid="{4DC3C9E9-72FB-484D-8D61-43F19C77A1CE}"/>
+    <hyperlink ref="O44" r:id="rId43" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/ET4IV_0k0g5MhoTtmfHEqRQBIA6DmKsT-IBtbr6PMkGePA?e=roM9nF" xr:uid="{576EBBC4-AC72-4CE7-A2B6-E9E0CFBBB887}"/>
+    <hyperlink ref="O45" r:id="rId44" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EaThuMLBs6pEjfQIwVuZO4UBxGg0EFRoYM20RXv48CCB7g?e=BELodH" xr:uid="{B06CC35A-8127-4386-A584-0DE1B7D869A2}"/>
+    <hyperlink ref="O46" r:id="rId45" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EcwXtq-B2f5NsDTqrqoO48UBOkWJFS5GaEp0ij7w0p5vig?e=UxUb17" xr:uid="{B6B5C005-8C7F-42AD-90A3-A12C199F538D}"/>
+    <hyperlink ref="O47" r:id="rId46" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EbdVkwzNHs5EusBWR0kCzvgB39AwtB31feZNcAzOftGnvw?e=vEMvQc" xr:uid="{15DC58E9-FECF-4BBA-8DEC-4B6A19A47B90}"/>
+    <hyperlink ref="O48" r:id="rId47" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EfPuxv38SmlHpKJVKE1M1esB5Jvc6xcuedl5cx85O3HrCA?e=9qOZyA" xr:uid="{269C71E8-D3F0-469F-9D52-3273FBCDFB72}"/>
+    <hyperlink ref="O49" r:id="rId48" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/ER7SiBCOrGdHk4uQ9waoVYsBES_fVj_3ezNRsrNIjtZe8A?e=2WSUNu" xr:uid="{A41E7B29-D1C4-41C9-A8A1-4D4727D260DC}"/>
+    <hyperlink ref="O50" r:id="rId49" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/Ecet1Ziwy1ROlmPmwPK8Ig0BWK8iomsGieESq6_MDEdoVw?e=yC44KQ" xr:uid="{21B13E6F-B94F-465F-8237-D206069D996A}"/>
+    <hyperlink ref="O51" r:id="rId50" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/ERBIUhG9Ve5KoZ3DZqw9wqIBXOUecPLKq-uiA6joH8l1nw?e=807bHD" xr:uid="{B7A6CF1C-A7CD-4458-885F-EAADE0DD5B87}"/>
+    <hyperlink ref="O52" r:id="rId51" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EYIiY9UoBAlErCqLVL6CUVoBgqsANNNV3bO3baVN8uOvEw?e=1lGKoT" xr:uid="{307A8D41-1A28-49E1-91E3-1D33D60F0099}"/>
+    <hyperlink ref="O53" r:id="rId52" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EZR6grFaY71Bq9DvycU7Ye0Bah_oKlWmGhKTjeXjz3jhAw?e=VIb6NA" xr:uid="{C0B8DF1D-320E-463A-9EE7-94B10AB37D77}"/>
+    <hyperlink ref="O54" r:id="rId53" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/ERO7qxmLx_5FsoXmW-dWC8gBkm2sz3eDEQIWaM6RrKgGoQ?e=ZgZ3sM" xr:uid="{6AE491C6-B42F-4C54-9C94-F69716B27F6D}"/>
+    <hyperlink ref="O55" r:id="rId54" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EVd8jPKyjItOjEO_XoohGXYBdqqOmFBUM08zGdPHfzaZ5Q?e=vdiEW7" xr:uid="{834970DE-EA5C-4B14-A5A6-379D012F18E8}"/>
+    <hyperlink ref="O56" r:id="rId55" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/Ec35s3pvgJ5DvF2BulTvGQQBjCqpgphr9Wb-RyXZp79Szw?e=JNiixT" xr:uid="{8AD271D4-D19B-4066-B558-72FFF8C20D44}"/>
+    <hyperlink ref="O57" r:id="rId56" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EWuqGNRwAP9Mke6Qip2Ut-MBEws6Ij9T5RGSJFvliFpYqw?e=z1pcN5" xr:uid="{594A9982-0C3E-41CF-8B01-94B145BFD762}"/>
+    <hyperlink ref="O58" r:id="rId57" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/ERO8tj-R7GxCvapq1PRy6T4B7P-zBXHp5tAFOuxF2D6LhA?e=V8vtmX" xr:uid="{DDA443CE-1B14-4E43-9B7C-D6179EC2B73D}"/>
+    <hyperlink ref="O59" r:id="rId58" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EXvZmEx6oY5EtM69SlI-ERoBUiDVqPjIC-3rqr5SPSdNnA?e=vSPxLc" xr:uid="{D56C43AA-2776-4265-9395-28190F819C68}"/>
+    <hyperlink ref="O60" r:id="rId59" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EeBEEL4wW6VGmQ4Wgbi6QhgB_hwaeT0cNMndXg9k2-5mVg?e=yR8P6D" xr:uid="{6E7066A8-D8EB-460A-A836-62A0A06BC602}"/>
+    <hyperlink ref="O61" r:id="rId60" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EUTjkWXarWpEvyN9lDVbMnoBKlKmV0Kkyxi7xvHZQKIucg?e=Ogz0fS" xr:uid="{18ECCE9D-2409-4D0C-B58B-D125399DE75F}"/>
+    <hyperlink ref="O62" r:id="rId61" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EQE8sVqrHnREr4uSvKCYEwABGVVchSiM2GDXy_gJv7ImUg?e=W9DzvE" xr:uid="{F061FBDB-C1F1-42FE-8E31-8978C30F9080}"/>
+    <hyperlink ref="O63" r:id="rId62" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EfY4idsCsrFEoiFyL8hyNoMB34MSdHraev3WIQ9fL5jaFg?e=FcBcHR" xr:uid="{1A3C1E48-6B29-4900-A419-0F720101C930}"/>
+    <hyperlink ref="O64" r:id="rId63" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EX8k_RJCwrRAueiYrYVSFwoB1GIZohp1HalKU-Ozai11Lw?e=eaBCra" xr:uid="{05C9BD23-11BC-4161-9FB7-0D328C3854D7}"/>
+    <hyperlink ref="O65" r:id="rId64" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/ESyqTdUq4YdGhX8b6rRrIboBnbvDZ61fpio-b6PsWx8M7Q?e=KFPwAt" xr:uid="{3930B63F-C8B5-4198-8A63-D4F56ED5B094}"/>
+    <hyperlink ref="O66" r:id="rId65" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EaMhbsqBCGlMrwrrLPqF4lABbrbW23vqn0QpWRRFGD3IKw?e=SU77tE" xr:uid="{4B588A77-54BA-4B00-84B4-5D6114C7A2D9}"/>
+    <hyperlink ref="O67" r:id="rId66" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/ERPmccw1ScZAjqHP8ALxebQBmwkfmFAA8tG6OmL4Ng_uKA?e=lcjoQ9" xr:uid="{5F163D67-BB64-4838-BFB4-BF07536240E1}"/>
+    <hyperlink ref="O68" r:id="rId67" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EeA2RE7Qh4lBtknK_CEL0SUBwGO-padwn3m3vH6xXvkoQA?e=eDT4Q2" xr:uid="{142422DD-A62D-4233-9E47-0E5F774075CA}"/>
+    <hyperlink ref="O69" r:id="rId68" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EWtb55iHy-FEomNjgz1x2BUBSDUr8xwy6x_AaNANm8VKjA?e=NqbvZv" xr:uid="{E9E62B61-6201-4B75-97F1-F93EE1AD429F}"/>
+    <hyperlink ref="O70" r:id="rId69" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EUTjkWXarWpEvyN9lDVbMnoBKlKmV0Kkyxi7xvHZQKIucg?e=2hc54l" xr:uid="{324DA14C-1EA0-41FA-87C5-9B564AB0AFD2}"/>
+    <hyperlink ref="O71" r:id="rId70" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EaTUfz342_tEtPN9z9KRGeQBNeEWIsn2psvSgSYkfWwHBA?e=oa5KSL" xr:uid="{44B787DB-D013-4F3F-9C5C-C0487632D667}"/>
+    <hyperlink ref="O72" r:id="rId71" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/ETvYkuhhoEtPrH0HUAfboowBJsyK6cq1Zx1oBcGZZHL4aQ?e=eRlbsP" xr:uid="{55954E1F-09CE-40D1-8053-19B526C04648}"/>
+    <hyperlink ref="O73" r:id="rId72" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/ERdPx8rHgPVIq4iKcvyVU3QB3MUpWwKlA5xE6ciInNgLWA?e=X1aw25" xr:uid="{6C610CB5-7789-433F-865B-7248C371B033}"/>
+    <hyperlink ref="O74" r:id="rId73" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EfZhRhPpw-xBig8jnm7bz0YBhkdQnhbMj6fh3eiNUssSmw?e=h0Q6u2" xr:uid="{62EEFE8E-EBC1-462A-A2F2-3A4645CC4358}"/>
+    <hyperlink ref="O75" r:id="rId74" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/Ecv_4HDZfmdLoywosjwQycsBHv7LytbChxSAZ9Fbwqiriw?e=EkOw6r" xr:uid="{17CC3FA3-612A-4ABE-8F97-BC32C29A6D2A}"/>
+    <hyperlink ref="O76" r:id="rId75" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EZXOUDKpccBJvGGsbOP0Ah0BECOSZDetAwInOk9JHeCqBw?e=Bw7ghd" xr:uid="{D71575AB-9050-449B-BEE8-4C8BA02A6BA7}"/>
+    <hyperlink ref="O77" r:id="rId76" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EYLEcN9wyNxItqVjZ3EOQzEBNC4z-LA9Dk2eRMnk-jcyxQ?e=TdWuiq" xr:uid="{69AD6BF8-6C4B-4199-AB17-D133CB295526}"/>
+    <hyperlink ref="O78" r:id="rId77" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EXwZhCWeJi5MrfqSbcRKXRIBcMceo6k0RKMp21K5iGiXlg?e=SrTYb6" xr:uid="{D3061DA5-7809-47C6-B321-7FB452C8D710}"/>
+    <hyperlink ref="O79" r:id="rId78" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EeR7c-1xev1HoB2wfM7OuJgB21uBZRHh3ASYa1SsOv5QYQ?e=1SUbEa" xr:uid="{752548BB-2A25-40BA-8B43-1AB7806C8223}"/>
+    <hyperlink ref="O80" r:id="rId79" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/ERxdN6ncGzZHhxpS8WAHgI0B8c6khBwwy-YUyMTh004GWw?e=qVyUGq" xr:uid="{46271EF3-0693-4BD7-8E0C-FD3217FECD2B}"/>
+    <hyperlink ref="O81" r:id="rId80" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EZBTYiyWzw1EndD2CEzIUx4BgOEE1qmH--igR1uYHKjWPw?e=VQqg1V" xr:uid="{CA9BA8B6-BB7F-4740-BAB3-26D2B69BCBEB}"/>
+    <hyperlink ref="O82" r:id="rId81" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EfDRvzbs4LNGrgAgoYbCY8oBud-GxbGkAk3t2KcwagRvbw?e=CpvG6I" xr:uid="{FFAF71E9-8126-4505-825B-361641C39420}"/>
+    <hyperlink ref="O83" r:id="rId82" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/ETR1qtyIfPlGh5k2FcDRK6wBOmgbkZ8U1D6ZRwtUDcYXRg?e=TLjfVR" xr:uid="{8374BD42-7D8F-4693-B282-5D7F5C571DAA}"/>
+    <hyperlink ref="O84" r:id="rId83" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/Ed833pLDukBHmcDBdP5UvUwBKYDW6B3g4MmE0gEyMttJKg?e=AqVXaq" xr:uid="{7B8617EC-5187-4A42-909B-7318B782B93D}"/>
+    <hyperlink ref="O85" r:id="rId84" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EUZm2YYevnFFk9HMUxowjUABKrFlS3tWChR5Kqm7je11Ow?e=O0lpCZ" xr:uid="{F511A5F2-E6A1-438F-AA64-663CB668D1BF}"/>
+    <hyperlink ref="O86" r:id="rId85" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EeAlpI7RROxMgbuxXoO_c1MBrCBhCe-wKC1f5Ha9QjZolA?e=Excm6C" xr:uid="{BF9E2E04-F22E-4B2C-B6C7-C23E5E441682}"/>
+    <hyperlink ref="O87" r:id="rId86" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/Efj0qjRPxNRKkKMNoSLWYfQBiFYJ8zfIQq7RrSZ2ei9X0Q?e=r2BOgc" xr:uid="{A5CAC8F9-F2B6-43C4-B496-ECA1BFB50147}"/>
+    <hyperlink ref="O88" r:id="rId87" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EWRP15ajiylAmg10dOuk-cMBk1QqwJPKsdEtJEpf63znBQ?e=h7nrsd" xr:uid="{A8B2D0D3-869D-42EC-BE01-BADB11543C08}"/>
+    <hyperlink ref="O89" r:id="rId88" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/ETw6bKzSd7VKj1GLHjjtz3oBU1UCHqsSLl8T27HCJgftBQ?e=iOftxu" xr:uid="{EE8F35D2-04AF-4631-9A5B-8A929AF35D4C}"/>
+    <hyperlink ref="O90" r:id="rId89" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EQxsKyUWIm5Bqs7EqUed9c4BvCkU0eCh0CB94zKiItKIhA?e=d0VkGs" xr:uid="{4B4B031F-CF9F-498C-8083-916018253846}"/>
+    <hyperlink ref="O91" r:id="rId90" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EbXrBXvXFh1FoVPNLIkhQ6YB-t38xSbBnwIT_u3bTKVpyA?e=kQcaJg" xr:uid="{EEF187F6-7AF3-4AE1-B81A-624DAD838E73}"/>
+    <hyperlink ref="O92" r:id="rId91" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EU7d0h6DYCdNoH5bq_ewnfgBRAcKm1b-6fGolLDVot_czg?e=fPH1cw" xr:uid="{5332A254-8BC7-4F7F-B894-70D807FA1F84}"/>
+    <hyperlink ref="O93" r:id="rId92" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/ERcUQqADi7JIh9R7wZhtiCwBAS92sACEjXHQxX9aal4aGA?e=1Gwa7d" xr:uid="{DDE6D5D9-D436-46E9-9E9E-0BCCFE68286A}"/>
+    <hyperlink ref="O94" r:id="rId93" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EQGyzctTb_1Bpzmp7XAjOu8BwKcyMy70B5-6V1vWLMTDCw?e=I5TaS7" xr:uid="{78310EC0-9CAB-4D06-A2D2-17EC47B74D11}"/>
+    <hyperlink ref="O95" r:id="rId94" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EStM3gHp4nhDrPzR_hehFcIBbAkOmc2XFPbK2JRb06wbnA?e=u2bRpj" xr:uid="{2418B8C0-3785-4723-B8D1-1C629952F140}"/>
+    <hyperlink ref="O96" r:id="rId95" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EeuNOGlYJTFPqRzw1SXETFYBgLzxRsVH4IxQwQEquQhjAw?e=qgukbj" xr:uid="{09A87E6F-A3B6-4894-922A-92929F541953}"/>
+    <hyperlink ref="O97" r:id="rId96" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EVMkUR8QStBApmqROonZL6EBLaL3PJ7q3rin70H0y2l-RA?e=G10iY8" xr:uid="{1453949A-3673-4997-9671-AC6C6F48D4B7}"/>
+    <hyperlink ref="O98" r:id="rId97" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EQdvPsV5RMBNh9nbyEwvqj8B9kslOOR1ZE4pH2EjJ2duUQ?e=BeKqnm" xr:uid="{995897C2-EAAE-4331-B309-D606FFB315D2}"/>
+    <hyperlink ref="O99" r:id="rId98" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EekpknRjnWJBlOPKZH2YrvABNSOqpEwjataAmsqYVOgNCA?e=mexU2o" xr:uid="{0EBF88FF-E432-4156-9062-F8E0127640B3}"/>
+    <hyperlink ref="O100" r:id="rId99" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EQpFMj9d8itKh_t3RMuTMSkBoKcONZ9qVx-y-IB4Eftt4w?e=O20e7g" xr:uid="{6D929690-A87B-4468-AC41-14FB4C06D275}"/>
+    <hyperlink ref="O101" r:id="rId100" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EQa8hnMb16xEtcQawqlBfVQBGxEPHMRMFzKPd8t6JZgpeA?e=Ap8kP0" xr:uid="{C17A48E0-D522-4FE5-A694-D914CEE5E8CD}"/>
+    <hyperlink ref="O102" r:id="rId101" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EVbqH_E-DslNrMvo2dytgn4BjXDHSjNTF_Qv6vdliFDl8w?e=H3p0PF" xr:uid="{F17DCDB0-F879-4AED-85E8-DC448411D8F0}"/>
+    <hyperlink ref="O103" r:id="rId102" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EdmDOxs0wZxAn4boP5eyjNMBzcoURCciN3qFKHhl8Y1ZCw?e=fhCAX6" xr:uid="{AEE615BF-BA46-4CCD-BC6D-793437B1C81B}"/>
+    <hyperlink ref="O104" r:id="rId103" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EducJP7p151Bt4LBpOOb5rUB4ygA7GNY6f9QQHo5O2oJlQ?e=Ea5uBb" xr:uid="{95D5385A-3032-4DBA-91D2-453370E9F1B5}"/>
+    <hyperlink ref="O105" r:id="rId104" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EQaDrJUG3rlKgXVezOdVnJEBnGCQPMY5UkEjMoasVVB5tg?e=iHCCgM" xr:uid="{E3EE39A2-3290-493F-91AA-BBA643B66FCC}"/>
+    <hyperlink ref="O106" r:id="rId105" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EULMX8Sz8WVFkNqmZT5ktUABYtVCNmhKSiZl77y4cqpgdQ?e=bmjxzg" xr:uid="{847FCDCB-74CA-4246-BDE2-0EAC2403FC55}"/>
+    <hyperlink ref="O107" r:id="rId106" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EUk1LPwzy1dBv5MixO-pGUkB_stQooiYxMYvMkhkP2yEYQ?e=PCc3IT" xr:uid="{92BC9EEF-3DBB-434A-8AEA-6BED31DE0A3D}"/>
+    <hyperlink ref="O108" r:id="rId107" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EWHS9UwAdKtFgc1zIg6gfUsByQdZ3Q9OYu3yA5xxz3gBmw?e=3ncLId" xr:uid="{15479139-E39B-4524-9F61-D56BE76F26BB}"/>
+    <hyperlink ref="O109" r:id="rId108" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/ETBXVAlTApVBlyIFE1aH3dgBKoG7d0Hdk7rpYgbOLofZzA?e=VziI64" xr:uid="{5E3D3138-C0CD-4B45-A861-25D70FAD56FF}"/>
+    <hyperlink ref="O110" r:id="rId109" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/Edai_WhY9tFDlDEaDNdU7IkB_nAtYD-_TqsRQMdrkyIFDQ?e=ieJaYd" xr:uid="{4C23D912-2C82-463C-9D8A-F76338F78960}"/>
+    <hyperlink ref="O111" r:id="rId110" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/ETJNmzFz7cJGuzIq6Ai4T8UBuouz3u97ijK63jMLOk3iQA?e=uTlakl" xr:uid="{268C13CE-E844-4B6E-B18E-AC10FB6691F5}"/>
+    <hyperlink ref="O112" r:id="rId111" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EU84_Fv-DmROh3TBqLNXSv8BrLeKTB5OVAK4nhivmftHuA?e=Jthtii" xr:uid="{CA610517-72C6-408D-B0E6-64B4885911F1}"/>
+    <hyperlink ref="O113" r:id="rId112" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EcYiC-6vN0ZMhP8bhhgq-X8BM-Mf3yWK0K6tclASZPCEow?e=WqqqIk" xr:uid="{50790EFB-B630-48AE-AAF5-74465825E582}"/>
+    <hyperlink ref="O114" r:id="rId113" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/ETYLBQ1Rr1FAn48je8hF1x8Baf9melfAb_V4rl11VWOshw?e=NXXVrB" xr:uid="{AB46C48C-420B-4E7A-B098-EEBAA0CC4F7D}"/>
+    <hyperlink ref="O115" r:id="rId114" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EdjEt7CLMQJJrTmqrK5XGcoBfh5Qb1qQaPHqFn2yH63opg?e=m6gB17" xr:uid="{42686EE3-4780-4594-BCC1-A1545C495895}"/>
+    <hyperlink ref="O116" r:id="rId115" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EXSecaz1ObVOnzXpdNttNWsBI82U9xlqIPDY-7MYn_vu2Q?e=1pGcUX" xr:uid="{5EB1EE19-7F77-4882-B36D-29445A6B5E4C}"/>
+    <hyperlink ref="O117" r:id="rId116" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EUk23vNOcN1Luj81O-0t418BLCooQMcl73GBsWCsscrcEA?e=ksPhWd" xr:uid="{06B47401-8295-4E18-B21F-C9381D700C38}"/>
+    <hyperlink ref="O118" r:id="rId117" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EUQ9KnPhZJ1MvKL_6OeAT1wBFqy3UUfcpAWzbvDqQaD5XQ?e=APTrv8" xr:uid="{D0F80BDF-4F5B-46C0-A3F7-74339B0079A1}"/>
+    <hyperlink ref="O119" r:id="rId118" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/Ebu-rZDqrnFDsOQQvy9_jBcBc9s8_tVGaSZMc6zQJe3KWw?e=iA48vB" xr:uid="{38EE2575-1F4F-4D0C-BFB5-3C8EDA3D844B}"/>
+    <hyperlink ref="O120" r:id="rId119" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/Ed1nh5fvITFLruVtMUYODnEBdMDm7nV_O-4NVw-nSluqkA?e=N6Qzo0" xr:uid="{3652A549-AA0D-48B0-BA16-9DE434615289}"/>
+    <hyperlink ref="O121" r:id="rId120" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EfelcS6_ZFpMgdRWf3AUtfEBwmo4oa-zWhmh4S-gwVWmZw?e=8nLeVo" xr:uid="{D8012B6A-046C-4642-B53D-28CBB30625DC}"/>
+    <hyperlink ref="O122" r:id="rId121" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EcdmeVY9S8RFur5ozXZIdYwBs10HIrEwAv8acq4wg2-6tQ?e=wpedMx" xr:uid="{51A6B578-AD9B-479E-BCD9-913C6F401A8A}"/>
+    <hyperlink ref="O123" r:id="rId122" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EWbE-hRhrKBHgaASyVN6LFgBXU89rZ-1iG0UUKuZGn3f_Q?e=xOYAt7" xr:uid="{8A724861-92B5-405C-B7EE-CC71C0E654BE}"/>
+    <hyperlink ref="O124" r:id="rId123" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EdoTaT1bt0JJnBiywi91LwcBvlo3-nJ2w-gviK_mY9ezzw?e=Q0PLk8" xr:uid="{A034EA32-B270-4FDA-B5F3-C5909BB7C190}"/>
+    <hyperlink ref="O125" r:id="rId124" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EeERzEwA6cNEg78mBuZO5foBo9I2mG8zg1H6o8y10JNO7g?e=UcrogB" xr:uid="{0C74FEFA-A5D7-46D6-8B17-8716C61EDB45}"/>
+    <hyperlink ref="O126" r:id="rId125" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EbtrRLuyXuVJh3sBcEdBFVUBFPkRbCVskTBaymxtpK-mVQ?e=xVkWKe" xr:uid="{8EBA8F81-E6F9-4CE2-83AD-BD5454C16DFC}"/>
+    <hyperlink ref="O127" r:id="rId126" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/Ef74HT5xBYROgek3lhpgu_EBu3b3UAsUvAuB_bUypWIAUQ?e=oHMSrB" xr:uid="{A3554369-F163-4D4D-B009-0CE100313D4A}"/>
+    <hyperlink ref="O128" r:id="rId127" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EZ3HBKpvQ-dMh4k5p7AMUJsBQBdeHwALTyYvPcJb4IvXcQ?e=fi4RGm" xr:uid="{9CC5DFCE-FEBF-4CDD-8D4C-116923075049}"/>
+    <hyperlink ref="O129" r:id="rId128" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EVhuWw3N_8RNn8NwsWUrqGgB1HC5u_Ppi1S0PMwvn3HmBg?e=wD8ZEN" xr:uid="{D7DD28AC-FB70-4A69-8F6E-BC167914977F}"/>
+    <hyperlink ref="O130" r:id="rId129" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EefqHYEfulFHut-V_z09pLIBqGlvpsBuUEAvRr2k4nRL-w?e=0gcHfG" xr:uid="{8EA789FF-A8B1-4AB5-AA37-D244F1031BD6}"/>
+    <hyperlink ref="O131" r:id="rId130" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EQb5cCd-PExMskW_5gYHEuUB6_Qpdhv341mir_fG8tLifg?e=NFv8Kl" xr:uid="{D7BE902D-E762-4580-9BEF-96755201041A}"/>
+    <hyperlink ref="O132" r:id="rId131" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/ES_CySl4s2BFjP2cEjY3vd4BY0-rIIehW6JxxmXKY4m0tw?e=jWVQ9x" xr:uid="{1F4CD55E-BE92-41F4-8E88-B8DE62C12839}"/>
+    <hyperlink ref="O133" r:id="rId132" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EVHhXxRaBs1CrtgQ61Y_2aQB5IwsuVa8e6ajFOlTcLf08g?e=6FIarx" xr:uid="{ED58DA25-B267-4114-A8DA-7E91E0ABA8F2}"/>
+    <hyperlink ref="O134" r:id="rId133" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/Ec7hCIqs-mBDvZC9PmbEu1ABEiXNrSMdB6PFfu1UbT-Dcg?e=EPEOa1" xr:uid="{F57629D3-C408-468A-8DD5-A807E0C9BA72}"/>
+    <hyperlink ref="O135" r:id="rId134" display="https://livejaverianaedu-my.sharepoint.com/:b:/g/personal/castrozsantiago_javeriana_edu_co/EX4M3LNO5-ZFmohJzWhGa7wBo6GV447KszBrVr43VusIXw?e=b1ScrZ" xr:uid="{D05BC30B-8DF5-4208-9528-71EC48508EA5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId135"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId136"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E6F6877F360D684882606907593468D1" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="93203587bb070517141ec270fad47669">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="107cf09d-1d53-44d3-b87e-3dd3c56f4970" xmlns:ns4="6f68c179-d6f2-4ed2-b3e0-45bac87b1762" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ca382fb7524f432bdd38d4f32c11badc" ns3:_="" ns4:_="">
+    <xsd:import namespace="107cf09d-1d53-44d3-b87e-3dd3c56f4970"/>
+    <xsd:import namespace="6f68c179-d6f2-4ed2-b3e0-45bac87b1762"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="107cf09d-1d53-44d3-b87e-3dd3c56f4970" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="12" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="17" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="22" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="23" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6f68c179-d6f2-4ed2-b3e0-45bac87b1762" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="20" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="107cf09d-1d53-44d3-b87e-3dd3c56f4970" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEC13B46-0CF3-4671-AA56-80559B2B2644}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="107cf09d-1d53-44d3-b87e-3dd3c56f4970"/>
+    <ds:schemaRef ds:uri="6f68c179-d6f2-4ed2-b3e0-45bac87b1762"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368EF57C-D61B-4309-82D0-21C0D3B22C54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A69D330-4F38-4E02-AFCC-F75C47286289}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="107cf09d-1d53-44d3-b87e-3dd3c56f4970"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6f68c179-d6f2-4ed2-b3e0-45bac87b1762"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>